--- a/Temp Oleo.xlsx
+++ b/Temp Oleo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lff\PycharmProjects\Juba\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CFE2C17E-C193-44A4-B806-6CBD34A47684}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{456386BA-EAD4-4A2D-8C73-015964FD34A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{D703D542-4E46-49C8-B64E-13216E0E2E0C}"/>
+    <workbookView xWindow="10140" yWindow="-16320" windowWidth="29040" windowHeight="15840" xr2:uid="{D703D542-4E46-49C8-B64E-13216E0E2E0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -497,14 +497,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -834,7 +833,7 @@
       <c r="A1" t="s">
         <v>140</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -1257,573 +1256,573 @@
       <c r="ALM1" s="1"/>
     </row>
     <row r="2" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A2" s="5">
-        <f t="array" ref="A2:B22">_xll.PIAdvCalcDat(Planilha1!$B$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,65,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+      <c r="A2" s="2">
+        <f t="array" ref="A2:B28">_xll.PIAdvCalcDat(Planilha1!$B$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,65,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>45139</v>
       </c>
       <c r="B2" s="4">
         <v>59.177059093729305</v>
       </c>
       <c r="C2" s="4">
-        <f t="array" ref="C2:C22">_xll.PIAdvCalcDat(Planilha1!$C$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="C2:C28">_xll.PIAdvCalcDat(Planilha1!$C$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>59.091109279383751</v>
       </c>
       <c r="D2" s="4">
-        <f t="array" ref="D2:D22">_xll.PIAdvCalcDat(Planilha1!$D$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="D2:D28">_xll.PIAdvCalcDat(Planilha1!$D$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.039324435195482</v>
       </c>
       <c r="E2" s="4">
-        <f t="array" ref="E2:E22">_xll.PIAdvCalcDat(Planilha1!$E$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="E2:E28">_xll.PIAdvCalcDat(Planilha1!$E$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>61.689793542984425</v>
       </c>
       <c r="F2" s="4">
-        <f t="array" ref="F2:F22">_xll.PIAdvCalcDat(Planilha1!$F$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="F2:F28">_xll.PIAdvCalcDat(Planilha1!$F$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>58.675445157783209</v>
       </c>
       <c r="G2" s="4">
-        <f t="array" ref="G2:G22">_xll.PIAdvCalcDat(Planilha1!$G$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="G2:G28">_xll.PIAdvCalcDat(Planilha1!$G$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>54.805190585693254</v>
       </c>
       <c r="H2" s="4">
-        <f t="array" ref="H2:H22">_xll.PIAdvCalcDat(Planilha1!$H$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="H2:H28">_xll.PIAdvCalcDat(Planilha1!$H$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>58.013427179081262</v>
       </c>
       <c r="I2" s="4">
-        <f t="array" ref="I2:I22">_xll.PIAdvCalcDat(Planilha1!$I$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="I2:I28">_xll.PIAdvCalcDat(Planilha1!$I$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>52.430808658624336</v>
       </c>
       <c r="J2" s="4">
-        <f t="array" ref="J2:J22">_xll.PIAdvCalcDat(Planilha1!$J$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="J2:J28">_xll.PIAdvCalcDat(Planilha1!$J$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.896158807348144</v>
       </c>
       <c r="K2" s="4">
-        <f t="array" ref="K2:K22">_xll.PIAdvCalcDat(Planilha1!$K$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="K2:K28">_xll.PIAdvCalcDat(Planilha1!$K$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>60.468185836445244</v>
       </c>
       <c r="L2" s="4">
-        <f t="array" ref="L2:L22">_xll.PIAdvCalcDat(Planilha1!$L$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="L2:L28">_xll.PIAdvCalcDat(Planilha1!$L$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.095422736623441</v>
       </c>
       <c r="M2" s="4">
-        <f t="array" ref="M2:M22">_xll.PIAdvCalcDat(Planilha1!$M$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="M2:M28">_xll.PIAdvCalcDat(Planilha1!$M$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.029568320898704</v>
       </c>
       <c r="N2" s="4">
-        <f t="array" ref="N2:N22">_xll.PIAdvCalcDat(Planilha1!$N$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="N2:N28">_xll.PIAdvCalcDat(Planilha1!$N$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.850778963781728</v>
       </c>
-      <c r="O2" s="3">
-        <f t="array" ref="O2:O22">_xll.PIAdvCalcDat(Planilha1!$O$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+      <c r="O2" s="5">
+        <f t="array" ref="O2:O28">_xll.PIAdvCalcDat(Planilha1!$O$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>62.77866456322495</v>
       </c>
       <c r="P2" s="4">
-        <f t="array" ref="P2:P22">_xll.PIAdvCalcDat(Planilha1!$P$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="P2:P28">_xll.PIAdvCalcDat(Planilha1!$P$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>60.436756519124714</v>
       </c>
       <c r="Q2" s="4">
-        <f t="array" ref="Q2:Q22">_xll.PIAdvCalcDat(Planilha1!$Q$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="Q2:Q28">_xll.PIAdvCalcDat(Planilha1!$Q$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>56.173874758581171</v>
       </c>
       <c r="R2" s="4">
-        <f t="array" ref="R2:R22">_xll.PIAdvCalcDat(Planilha1!$R$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="R2:R28">_xll.PIAdvCalcDat(Planilha1!$R$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>60.508782654041156</v>
       </c>
       <c r="S2" s="4">
-        <f t="array" ref="S2:S22">_xll.PIAdvCalcDat(Planilha1!$S$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="S2:S28">_xll.PIAdvCalcDat(Planilha1!$S$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>54.833464097905406</v>
       </c>
       <c r="T2" s="4">
-        <f t="array" ref="T2:T22">_xll.PIAdvCalcDat(Planilha1!$T$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="T2:T28">_xll.PIAdvCalcDat(Planilha1!$T$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>59.925376257347189</v>
       </c>
       <c r="U2" s="4">
-        <f t="array" ref="U2:U22">_xll.PIAdvCalcDat(Planilha1!$U$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="U2:U28">_xll.PIAdvCalcDat(Planilha1!$U$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.849098837085862</v>
       </c>
       <c r="V2" s="4">
-        <f t="array" ref="V2:V22">_xll.PIAdvCalcDat(Planilha1!$V$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="V2:V28">_xll.PIAdvCalcDat(Planilha1!$V$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>60.577924264482171</v>
       </c>
       <c r="W2" s="4">
-        <f t="array" ref="W2:W22">_xll.PIAdvCalcDat(Planilha1!$W$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="W2:W28">_xll.PIAdvCalcDat(Planilha1!$W$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>54.874773744031693</v>
       </c>
       <c r="X2" s="4">
-        <f t="array" ref="X2:X22">_xll.PIAdvCalcDat(Planilha1!$X$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="X2:X28">_xll.PIAdvCalcDat(Planilha1!$X$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.930580813049893</v>
       </c>
       <c r="Y2" s="4">
-        <f t="array" ref="Y2:Y22">_xll.PIAdvCalcDat(Planilha1!$Y$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="Y2:Y28">_xll.PIAdvCalcDat(Planilha1!$Y$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>53.651623826501627</v>
       </c>
       <c r="Z2" s="4">
-        <f t="array" ref="Z2:Z22">_xll.PIAdvCalcDat(Planilha1!$Z$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="Z2:Z28">_xll.PIAdvCalcDat(Planilha1!$Z$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.962726031677633</v>
       </c>
       <c r="AA2" s="4">
-        <f t="array" ref="AA2:AA22">_xll.PIAdvCalcDat(Planilha1!$AA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AA2:AA28">_xll.PIAdvCalcDat(Planilha1!$AA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.302373747594444</v>
       </c>
       <c r="AB2" s="4">
-        <f t="array" ref="AB2:AB22">_xll.PIAdvCalcDat(Planilha1!$AB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AB2:AB28">_xll.PIAdvCalcDat(Planilha1!$AB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>56.018181540749289</v>
       </c>
       <c r="AC2" s="4">
-        <f t="array" ref="AC2:AC22">_xll.PIAdvCalcDat(Planilha1!$AC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AC2:AC28">_xll.PIAdvCalcDat(Planilha1!$AC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.036727450698571</v>
       </c>
       <c r="AD2" s="4" t="str">
-        <f t="array" ref="AD2:AD22">_xll.PIAdvCalcDat(Planilha1!$AD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AD2:AD28">_xll.PIAdvCalcDat(Planilha1!$AD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AE2" s="4">
-        <f t="array" ref="AE2:AE22">_xll.PIAdvCalcDat(Planilha1!$AE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AE2:AE28">_xll.PIAdvCalcDat(Planilha1!$AE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>51.312664088867514</v>
       </c>
       <c r="AF2" s="4">
-        <f t="array" ref="AF2:AF22">_xll.PIAdvCalcDat(Planilha1!$AF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AF2:AF28">_xll.PIAdvCalcDat(Planilha1!$AF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>50.668955963316456</v>
       </c>
       <c r="AG2" s="4">
-        <f t="array" ref="AG2:AG22">_xll.PIAdvCalcDat(Planilha1!$AG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AG2:AG28">_xll.PIAdvCalcDat(Planilha1!$AG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>52.23218612788714</v>
       </c>
       <c r="AH2" s="4" t="str">
-        <f t="array" ref="AH2:AH22">_xll.PIAdvCalcDat(Planilha1!$AH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AH2:AH28">_xll.PIAdvCalcDat(Planilha1!$AH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AI2" s="4" t="str">
-        <f t="array" ref="AI2:AI22">_xll.PIAdvCalcDat(Planilha1!$AI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AI2:AI28">_xll.PIAdvCalcDat(Planilha1!$AI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AJ2" s="4" t="str">
-        <f t="array" ref="AJ2:AJ22">_xll.PIAdvCalcDat(Planilha1!$AJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AJ2:AJ28">_xll.PIAdvCalcDat(Planilha1!$AJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AK2" s="4">
-        <f t="array" ref="AK2:AK22">_xll.PIAdvCalcDat(Planilha1!$AK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AK2:AK28">_xll.PIAdvCalcDat(Planilha1!$AK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>51.723835742439398</v>
       </c>
       <c r="AL2" s="4">
-        <f t="array" ref="AL2:AL22">_xll.PIAdvCalcDat(Planilha1!$AL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AL2:AL28">_xll.PIAdvCalcDat(Planilha1!$AL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>53.305946394937656</v>
       </c>
       <c r="AM2" s="4">
-        <f t="array" ref="AM2:AM22">_xll.PIAdvCalcDat(Planilha1!$AM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AM2:AM28">_xll.PIAdvCalcDat(Planilha1!$AM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>53.033386751607026</v>
       </c>
       <c r="AN2" s="4">
-        <f t="array" ref="AN2:AN22">_xll.PIAdvCalcDat(Planilha1!$AN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AN2:AN28">_xll.PIAdvCalcDat(Planilha1!$AN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>51.888650785728586</v>
       </c>
       <c r="AO2" s="4">
-        <f t="array" ref="AO2:AO22">_xll.PIAdvCalcDat(Planilha1!$AO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AO2:AO28">_xll.PIAdvCalcDat(Planilha1!$AO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>51.54928645899215</v>
       </c>
       <c r="AP2" s="4" t="str">
-        <f t="array" ref="AP2:AP22">_xll.PIAdvCalcDat(Planilha1!$AP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AP2:AP28">_xll.PIAdvCalcDat(Planilha1!$AP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AQ2" s="4">
-        <f t="array" ref="AQ2:AQ22">_xll.PIAdvCalcDat(Planilha1!$AQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AQ2:AQ28">_xll.PIAdvCalcDat(Planilha1!$AQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>52.826898950850442</v>
       </c>
       <c r="AR2" s="4">
-        <f t="array" ref="AR2:AR22">_xll.PIAdvCalcDat(Planilha1!$AR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AR2:AR28">_xll.PIAdvCalcDat(Planilha1!$AR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>50.740139561797939</v>
       </c>
       <c r="AS2" s="4">
-        <f t="array" ref="AS2:AS22">_xll.PIAdvCalcDat(Planilha1!$AS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AS2:AS28">_xll.PIAdvCalcDat(Planilha1!$AS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>53.362734606268155</v>
       </c>
       <c r="AT2" s="4" t="str">
-        <f t="array" ref="AT2:AT22">_xll.PIAdvCalcDat(Planilha1!$AT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AT2:AT28">_xll.PIAdvCalcDat(Planilha1!$AT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AU2" s="4">
-        <f t="array" ref="AU2:AU22">_xll.PIAdvCalcDat(Planilha1!$AU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AU2:AU28">_xll.PIAdvCalcDat(Planilha1!$AU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>51.877253819700272</v>
       </c>
       <c r="AV2" s="4" t="str">
-        <f t="array" ref="AV2:AV22">_xll.PIAdvCalcDat(Planilha1!$AV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AV2:AV28">_xll.PIAdvCalcDat(Planilha1!$AV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AW2" s="4">
-        <f t="array" ref="AW2:AW22">_xll.PIAdvCalcDat(Planilha1!$AW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AW2:AW28">_xll.PIAdvCalcDat(Planilha1!$AW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>52.088327837306146</v>
       </c>
       <c r="AX2" s="4">
-        <f t="array" ref="AX2:AX22">_xll.PIAdvCalcDat(Planilha1!$AX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AX2:AX28">_xll.PIAdvCalcDat(Planilha1!$AX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>52.314665979937452</v>
       </c>
       <c r="AY2" s="4" t="str">
-        <f t="array" ref="AY2:AY22">_xll.PIAdvCalcDat(Planilha1!$AY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AY2:AY28">_xll.PIAdvCalcDat(Planilha1!$AY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="AZ2" s="4">
-        <f t="array" ref="AZ2:AZ22">_xll.PIAdvCalcDat(Planilha1!$AZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="AZ2:AZ28">_xll.PIAdvCalcDat(Planilha1!$AZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>53.249959425070145</v>
       </c>
       <c r="BA2" s="4">
-        <f t="array" ref="BA2:BA22">_xll.PIAdvCalcDat(Planilha1!$BA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BA2:BA28">_xll.PIAdvCalcDat(Planilha1!$BA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.330103795008675</v>
       </c>
       <c r="BB2" s="4">
-        <f t="array" ref="BB2:BB22">_xll.PIAdvCalcDat(Planilha1!$BB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BB2:BB28">_xll.PIAdvCalcDat(Planilha1!$BB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>52.234155245567564</v>
       </c>
       <c r="BC2" s="4">
-        <f t="array" ref="BC2:BC22">_xll.PIAdvCalcDat(Planilha1!$BC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BC2:BC28">_xll.PIAdvCalcDat(Planilha1!$BC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>49.642244497354881</v>
       </c>
       <c r="BD2" s="4">
-        <f t="array" ref="BD2:BD22">_xll.PIAdvCalcDat(Planilha1!$BD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BD2:BD28">_xll.PIAdvCalcDat(Planilha1!$BD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>53.791876192992667</v>
       </c>
       <c r="BE2" s="4">
-        <f t="array" ref="BE2:BE22">_xll.PIAdvCalcDat(Planilha1!$BE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BE2:BE28">_xll.PIAdvCalcDat(Planilha1!$BE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>53.788973438478536</v>
       </c>
       <c r="BF2" s="4">
-        <f t="array" ref="BF2:BF22">_xll.PIAdvCalcDat(Planilha1!$BF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BF2:BF28">_xll.PIAdvCalcDat(Planilha1!$BF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>49.4163157688944</v>
       </c>
       <c r="BG2" s="4">
-        <f t="array" ref="BG2:BG22">_xll.PIAdvCalcDat(Planilha1!$BG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BG2:BG28">_xll.PIAdvCalcDat(Planilha1!$BG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>50.262095719074679</v>
       </c>
       <c r="BH2" s="4">
-        <f t="array" ref="BH2:BH22">_xll.PIAdvCalcDat(Planilha1!$BH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BH2:BH28">_xll.PIAdvCalcDat(Planilha1!$BH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>51.911844512222039</v>
       </c>
       <c r="BI2" s="4">
-        <f t="array" ref="BI2:BI22">_xll.PIAdvCalcDat(Planilha1!$BI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BI2:BI28">_xll.PIAdvCalcDat(Planilha1!$BI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>49.768187118441041</v>
       </c>
       <c r="BJ2" s="4">
-        <f t="array" ref="BJ2:BJ22">_xll.PIAdvCalcDat(Planilha1!$BJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BJ2:BJ28">_xll.PIAdvCalcDat(Planilha1!$BJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>48.973543296874041</v>
       </c>
       <c r="BK2" s="4">
-        <f t="array" ref="BK2:BK22">_xll.PIAdvCalcDat(Planilha1!$BK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BK2:BK28">_xll.PIAdvCalcDat(Planilha1!$BK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>51.18779074498849</v>
       </c>
       <c r="BL2" s="4" t="str">
-        <f t="array" ref="BL2:BL22">_xll.PIAdvCalcDat(Planilha1!$BL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BL2:BL28">_xll.PIAdvCalcDat(Planilha1!$BL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="BM2" s="4">
-        <f t="array" ref="BM2:BM22">_xll.PIAdvCalcDat(Planilha1!$BM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BM2:BM28">_xll.PIAdvCalcDat(Planilha1!$BM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.18087715608528</v>
       </c>
       <c r="BN2" s="4">
-        <f t="array" ref="BN2:BN22">_xll.PIAdvCalcDat(Planilha1!$BN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BN2:BN28">_xll.PIAdvCalcDat(Planilha1!$BN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>56.796866299196772</v>
       </c>
       <c r="BO2" s="4">
-        <f t="array" ref="BO2:BO22">_xll.PIAdvCalcDat(Planilha1!$BO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BO2:BO28">_xll.PIAdvCalcDat(Planilha1!$BO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.478125616794514</v>
       </c>
       <c r="BP2" s="4">
-        <f t="array" ref="BP2:BP22">_xll.PIAdvCalcDat(Planilha1!$BP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BP2:BP28">_xll.PIAdvCalcDat(Planilha1!$BP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>64.536164947564458</v>
       </c>
       <c r="BQ2" s="4">
-        <f t="array" ref="BQ2:BQ22">_xll.PIAdvCalcDat(Planilha1!$BQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BQ2:BQ28">_xll.PIAdvCalcDat(Planilha1!$BQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>58.102198215232207</v>
       </c>
       <c r="BR2" s="4">
-        <f t="array" ref="BR2:BR22">_xll.PIAdvCalcDat(Planilha1!$BR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BR2:BR28">_xll.PIAdvCalcDat(Planilha1!$BR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>59.621799713155767</v>
       </c>
       <c r="BS2" s="4">
-        <f t="array" ref="BS2:BS22">_xll.PIAdvCalcDat(Planilha1!$BS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BS2:BS28">_xll.PIAdvCalcDat(Planilha1!$BS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.797339243207659</v>
       </c>
       <c r="BT2" s="4">
-        <f t="array" ref="BT2:BT22">_xll.PIAdvCalcDat(Planilha1!$BT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BT2:BT28">_xll.PIAdvCalcDat(Planilha1!$BT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>54.375760160523768</v>
       </c>
       <c r="BU2" s="4" t="str">
-        <f t="array" ref="BU2:BU22">_xll.PIAdvCalcDat(Planilha1!$BU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BU2:BU28">_xll.PIAdvCalcDat(Planilha1!$BU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="BV2" s="4" t="str">
-        <f t="array" ref="BV2:BV22">_xll.PIAdvCalcDat(Planilha1!$BV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BV2:BV28">_xll.PIAdvCalcDat(Planilha1!$BV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="BW2" s="4">
-        <f t="array" ref="BW2:BW22">_xll.PIAdvCalcDat(Planilha1!$BW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BW2:BW28">_xll.PIAdvCalcDat(Planilha1!$BW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>51.772612000156641</v>
       </c>
       <c r="BX2" s="4">
-        <f t="array" ref="BX2:BX22">_xll.PIAdvCalcDat(Planilha1!$BX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BX2:BX28">_xll.PIAdvCalcDat(Planilha1!$BX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>51.069418652964394</v>
       </c>
       <c r="BY2" s="4">
-        <f t="array" ref="BY2:BY22">_xll.PIAdvCalcDat(Planilha1!$BY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BY2:BY28">_xll.PIAdvCalcDat(Planilha1!$BY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>39.628042340729152</v>
       </c>
       <c r="BZ2" s="4">
-        <f t="array" ref="BZ2:BZ22">_xll.PIAdvCalcDat(Planilha1!$BZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="BZ2:BZ28">_xll.PIAdvCalcDat(Planilha1!$BZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>52.69348030053758</v>
       </c>
       <c r="CA2" s="4">
-        <f t="array" ref="CA2:CA22">_xll.PIAdvCalcDat(Planilha1!$CA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CA2:CA28">_xll.PIAdvCalcDat(Planilha1!$CA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.274027562350817</v>
       </c>
       <c r="CB2" s="4">
-        <f t="array" ref="CB2:CB22">_xll.PIAdvCalcDat(Planilha1!$CB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CB2:CB28">_xll.PIAdvCalcDat(Planilha1!$CB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>48.871693126739018</v>
       </c>
       <c r="CC2" s="4">
-        <f t="array" ref="CC2:CC22">_xll.PIAdvCalcDat(Planilha1!$CC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CC2:CC28">_xll.PIAdvCalcDat(Planilha1!$CC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>50.880054825554858</v>
       </c>
       <c r="CD2" s="4">
-        <f t="array" ref="CD2:CD22">_xll.PIAdvCalcDat(Planilha1!$CD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CD2:CD28">_xll.PIAdvCalcDat(Planilha1!$CD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>48.603169403218409</v>
       </c>
       <c r="CE2" s="4" t="str">
-        <f t="array" ref="CE2:CE22">_xll.PIAdvCalcDat(Planilha1!$CE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CE2:CE28">_xll.PIAdvCalcDat(Planilha1!$CE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>[-11057] Not Enough Values For Calculation</v>
       </c>
       <c r="CF2" s="4">
-        <f t="array" ref="CF2:CF22">_xll.PIAdvCalcDat(Planilha1!$CF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CF2:CF28">_xll.PIAdvCalcDat(Planilha1!$CF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>50.968715081667767</v>
       </c>
       <c r="CG2" s="4">
-        <f t="array" ref="CG2:CG22">_xll.PIAdvCalcDat(Planilha1!$CG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CG2:CG28">_xll.PIAdvCalcDat(Planilha1!$CG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>45.912564753734486</v>
       </c>
       <c r="CH2" s="4">
-        <f t="array" ref="CH2:CH22">_xll.PIAdvCalcDat(Planilha1!$CH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CH2:CH28">_xll.PIAdvCalcDat(Planilha1!$CH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.819334079224276</v>
       </c>
       <c r="CI2" s="4">
-        <f t="array" ref="CI2:CI22">_xll.PIAdvCalcDat(Planilha1!$CI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CI2:CI28">_xll.PIAdvCalcDat(Planilha1!$CI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.694891909001171</v>
       </c>
       <c r="CJ2" s="4">
-        <f t="array" ref="CJ2:CJ22">_xll.PIAdvCalcDat(Planilha1!$CJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CJ2:CJ28">_xll.PIAdvCalcDat(Planilha1!$CJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.363304667547879</v>
       </c>
       <c r="CK2" s="4">
-        <f t="array" ref="CK2:CK22">_xll.PIAdvCalcDat(Planilha1!$CK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CK2:CK28">_xll.PIAdvCalcDat(Planilha1!$CK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>58.641322840532816</v>
       </c>
       <c r="CL2" s="4">
-        <f t="array" ref="CL2:CL22">_xll.PIAdvCalcDat(Planilha1!$CL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CL2:CL28">_xll.PIAdvCalcDat(Planilha1!$CL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.028417061681104</v>
       </c>
       <c r="CM2" s="4">
-        <f t="array" ref="CM2:CM22">_xll.PIAdvCalcDat(Planilha1!$CM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CM2:CM28">_xll.PIAdvCalcDat(Planilha1!$CM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.131017722335514</v>
       </c>
       <c r="CN2" s="4">
-        <f t="array" ref="CN2:CN22">_xll.PIAdvCalcDat(Planilha1!$CN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CN2:CN28">_xll.PIAdvCalcDat(Planilha1!$CN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>56.416256892005258</v>
       </c>
       <c r="CO2" s="4">
-        <f t="array" ref="CO2:CO22">_xll.PIAdvCalcDat(Planilha1!$CO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CO2:CO28">_xll.PIAdvCalcDat(Planilha1!$CO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>61.689883124489405</v>
       </c>
       <c r="CP2" s="4">
-        <f t="array" ref="CP2:CP22">_xll.PIAdvCalcDat(Planilha1!$CP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CP2:CP28">_xll.PIAdvCalcDat(Planilha1!$CP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>61.434010012343037</v>
       </c>
       <c r="CQ2" s="4">
-        <f t="array" ref="CQ2:CQ22">_xll.PIAdvCalcDat(Planilha1!$CQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CQ2:CQ28">_xll.PIAdvCalcDat(Planilha1!$CQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.600481122808986</v>
       </c>
       <c r="CR2" s="4">
-        <f t="array" ref="CR2:CR22">_xll.PIAdvCalcDat(Planilha1!$CR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CR2:CR28">_xll.PIAdvCalcDat(Planilha1!$CR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>55.82860527816517</v>
       </c>
       <c r="CS2" s="4">
-        <f t="array" ref="CS2:CS22">_xll.PIAdvCalcDat(Planilha1!$CS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CS2:CS28">_xll.PIAdvCalcDat(Planilha1!$CS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.081303370712149</v>
       </c>
       <c r="CT2" s="4">
-        <f t="array" ref="CT2:CT22">_xll.PIAdvCalcDat(Planilha1!$CT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CT2:CT28">_xll.PIAdvCalcDat(Planilha1!$CT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>57.486494279813783</v>
       </c>
       <c r="CU2" s="4">
-        <f t="array" ref="CU2:CU22">_xll.PIAdvCalcDat(Planilha1!$CU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CU2:CU28">_xll.PIAdvCalcDat(Planilha1!$CU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>56.06344237161187</v>
       </c>
       <c r="CV2" s="4">
-        <f t="array" ref="CV2:CV22">_xll.PIAdvCalcDat(Planilha1!$CV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CV2:CV28">_xll.PIAdvCalcDat(Planilha1!$CV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>44.976894419373927</v>
       </c>
       <c r="CW2" s="4">
-        <f t="array" ref="CW2:CW22">_xll.PIAdvCalcDat(Planilha1!$CW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CW2:CW28">_xll.PIAdvCalcDat(Planilha1!$CW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>45.191999923351197</v>
       </c>
       <c r="CX2" s="4">
-        <f t="array" ref="CX2:CX22">_xll.PIAdvCalcDat(Planilha1!$CX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CX2:CX28">_xll.PIAdvCalcDat(Planilha1!$CX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>46.414913933622067</v>
       </c>
       <c r="CY2" s="4">
-        <f t="array" ref="CY2:CY22">_xll.PIAdvCalcDat(Planilha1!$CY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CY2:CY28">_xll.PIAdvCalcDat(Planilha1!$CY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>41.744299355748431</v>
       </c>
       <c r="CZ2" s="4">
-        <f t="array" ref="CZ2:CZ22">_xll.PIAdvCalcDat(Planilha1!$CZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="CZ2:CZ28">_xll.PIAdvCalcDat(Planilha1!$CZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>37.203111909900883</v>
       </c>
       <c r="DA2" s="4">
-        <f t="array" ref="DA2:DA22">_xll.PIAdvCalcDat(Planilha1!$DA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DA2:DA28">_xll.PIAdvCalcDat(Planilha1!$DA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>44.921796976429057</v>
       </c>
       <c r="DB2" s="4">
-        <f t="array" ref="DB2:DB22">_xll.PIAdvCalcDat(Planilha1!$DB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DB2:DB28">_xll.PIAdvCalcDat(Planilha1!$DB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>46.38266587525942</v>
       </c>
       <c r="DC2" s="4">
-        <f t="array" ref="DC2:DC22">_xll.PIAdvCalcDat(Planilha1!$DC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DC2:DC28">_xll.PIAdvCalcDat(Planilha1!$DC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>44.661700810922689</v>
       </c>
       <c r="DD2" s="4">
-        <f t="array" ref="DD2:DD22">_xll.PIAdvCalcDat(Planilha1!$DD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DD2:DD28">_xll.PIAdvCalcDat(Planilha1!$DD$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>44.618230532321469</v>
       </c>
       <c r="DE2" s="4">
-        <f t="array" ref="DE2:DE22">_xll.PIAdvCalcDat(Planilha1!$DE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DE2:DE28">_xll.PIAdvCalcDat(Planilha1!$DE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>38.154716958359522</v>
       </c>
       <c r="DF2" s="4">
-        <f t="array" ref="DF2:DF22">_xll.PIAdvCalcDat(Planilha1!$DF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DF2:DF28">_xll.PIAdvCalcDat(Planilha1!$DF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>42.82487337738192</v>
       </c>
       <c r="DG2" s="4">
-        <f t="array" ref="DG2:DG22">_xll.PIAdvCalcDat(Planilha1!$DG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DG2:DG28">_xll.PIAdvCalcDat(Planilha1!$DG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>42.63919949636125</v>
       </c>
       <c r="DH2" s="4">
-        <f t="array" ref="DH2:DH22">_xll.PIAdvCalcDat(Planilha1!$DH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DH2:DH28">_xll.PIAdvCalcDat(Planilha1!$DH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>53.318616550059481</v>
       </c>
       <c r="DI2" s="4">
-        <f t="array" ref="DI2:DI22">_xll.PIAdvCalcDat(Planilha1!$DI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DI2:DI28">_xll.PIAdvCalcDat(Planilha1!$DI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>44.004999877015749</v>
       </c>
       <c r="DJ2" s="4">
-        <f t="array" ref="DJ2:DJ22">_xll.PIAdvCalcDat(Planilha1!$DJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DJ2:DJ28">_xll.PIAdvCalcDat(Planilha1!$DJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>45.890102149741629</v>
       </c>
       <c r="DK2" s="4">
-        <f t="array" ref="DK2:DK22">_xll.PIAdvCalcDat(Planilha1!$DK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DK2:DK28">_xll.PIAdvCalcDat(Planilha1!$DK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>47.032214884540124</v>
       </c>
       <c r="DL2" s="4">
-        <f t="array" ref="DL2:DL22">_xll.PIAdvCalcDat(Planilha1!$DL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DL2:DL28">_xll.PIAdvCalcDat(Planilha1!$DL$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>48.285326588042615</v>
       </c>
       <c r="DM2" s="4">
-        <f t="array" ref="DM2:DM22">_xll.PIAdvCalcDat(Planilha1!$DM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DM2:DM28">_xll.PIAdvCalcDat(Planilha1!$DM$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>37.596303424637298</v>
       </c>
       <c r="DN2" s="4">
-        <f t="array" ref="DN2:DN22">_xll.PIAdvCalcDat(Planilha1!$DN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DN2:DN28">_xll.PIAdvCalcDat(Planilha1!$DN$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>47.893133805285984</v>
       </c>
       <c r="DO2" s="4">
-        <f t="array" ref="DO2:DO22">_xll.PIAdvCalcDat(Planilha1!$DO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DO2:DO28">_xll.PIAdvCalcDat(Planilha1!$DO$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>44.128044849787003</v>
       </c>
       <c r="DP2" s="4">
-        <f t="array" ref="DP2:DP22">_xll.PIAdvCalcDat(Planilha1!$DP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DP2:DP28">_xll.PIAdvCalcDat(Planilha1!$DP$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>42.080240396059082</v>
       </c>
       <c r="DQ2" s="4">
-        <f t="array" ref="DQ2:DQ22">_xll.PIAdvCalcDat(Planilha1!$DQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DQ2:DQ28">_xll.PIAdvCalcDat(Planilha1!$DQ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>45.560510933312187</v>
       </c>
       <c r="DR2" s="4">
-        <f t="array" ref="DR2:DR22">_xll.PIAdvCalcDat(Planilha1!$DR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DR2:DR28">_xll.PIAdvCalcDat(Planilha1!$DR$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>44.125747539604724</v>
       </c>
       <c r="DS2" s="4">
-        <f t="array" ref="DS2:DS22">_xll.PIAdvCalcDat(Planilha1!$DS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DS2:DS28">_xll.PIAdvCalcDat(Planilha1!$DS$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>45.965213441312983</v>
       </c>
       <c r="DT2" s="4">
-        <f t="array" ref="DT2:DT22">_xll.PIAdvCalcDat(Planilha1!$DT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DT2:DT28">_xll.PIAdvCalcDat(Planilha1!$DT$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>50.757454287318403</v>
       </c>
       <c r="DU2" s="4">
-        <f t="array" ref="DU2:DU22">_xll.PIAdvCalcDat(Planilha1!$DU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DU2:DU28">_xll.PIAdvCalcDat(Planilha1!$DU$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>48.177600471092475</v>
       </c>
       <c r="DV2" s="4">
-        <f t="array" ref="DV2:DV22">_xll.PIAdvCalcDat(Planilha1!$DV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DV2:DV28">_xll.PIAdvCalcDat(Planilha1!$DV$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>43.872912072611378</v>
       </c>
       <c r="DW2" s="4">
-        <f t="array" ref="DW2:DW22">_xll.PIAdvCalcDat(Planilha1!$DW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DW2:DW28">_xll.PIAdvCalcDat(Planilha1!$DW$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>47.700288287042767</v>
       </c>
       <c r="DX2" s="4">
-        <f t="array" ref="DX2:DX22">_xll.PIAdvCalcDat(Planilha1!$DX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DX2:DX28">_xll.PIAdvCalcDat(Planilha1!$DX$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>40.788994597352072</v>
       </c>
       <c r="DY2" s="4">
-        <f t="array" ref="DY2:DY22">_xll.PIAdvCalcDat(Planilha1!$DY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DY2:DY28">_xll.PIAdvCalcDat(Planilha1!$DY$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>38.118369463192494</v>
       </c>
       <c r="DZ2" s="4">
-        <f t="array" ref="DZ2:DZ22">_xll.PIAdvCalcDat(Planilha1!$DZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="DZ2:DZ28">_xll.PIAdvCalcDat(Planilha1!$DZ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>41.108376982324408</v>
       </c>
       <c r="EA2" s="4">
-        <f t="array" ref="EA2:EA22">_xll.PIAdvCalcDat(Planilha1!$EA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EA2:EA28">_xll.PIAdvCalcDat(Planilha1!$EA$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>40.428330534559208</v>
       </c>
       <c r="EB2" s="4">
-        <f t="array" ref="EB2:EB22">_xll.PIAdvCalcDat(Planilha1!$EB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EB2:EB28">_xll.PIAdvCalcDat(Planilha1!$EB$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>43.794906437768759</v>
       </c>
       <c r="EC2" s="4">
-        <f t="array" ref="EC2:EC22">_xll.PIAdvCalcDat(Planilha1!$EC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EC2:EC28">_xll.PIAdvCalcDat(Planilha1!$EC$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>45.313805529765006</v>
       </c>
       <c r="ED2" s="4">
-        <f t="array" ref="ED2:ED22">_xll.PIAdvCalcDat(Planilha1!$ED$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="ED2:ED28">_xll.PIAdvCalcDat(Planilha1!$ED$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>42.078821793854189</v>
       </c>
       <c r="EE2" s="4">
-        <f t="array" ref="EE2:EE22">_xll.PIAdvCalcDat(Planilha1!$EE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EE2:EE28">_xll.PIAdvCalcDat(Planilha1!$EE$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>43.807832638081564</v>
       </c>
       <c r="EF2" s="4">
-        <f t="array" ref="EF2:EF22">_xll.PIAdvCalcDat(Planilha1!$EF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EF2:EF28">_xll.PIAdvCalcDat(Planilha1!$EF$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>49.069329012951023</v>
       </c>
       <c r="EG2" s="4">
-        <f t="array" ref="EG2:EG22">_xll.PIAdvCalcDat(Planilha1!$EG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EG2:EG28">_xll.PIAdvCalcDat(Planilha1!$EG$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>38.340393987195242</v>
       </c>
       <c r="EH2" s="4">
-        <f t="array" ref="EH2:EH22">_xll.PIAdvCalcDat(Planilha1!$EH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EH2:EH28">_xll.PIAdvCalcDat(Planilha1!$EH$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>48.388919290211227</v>
       </c>
       <c r="EI2" s="4">
-        <f t="array" ref="EI2:EI22">_xll.PIAdvCalcDat(Planilha1!$EI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EI2:EI28">_xll.PIAdvCalcDat(Planilha1!$EI$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>40.889257452875896</v>
       </c>
       <c r="EJ2" s="4">
-        <f t="array" ref="EJ2:EJ22">_xll.PIAdvCalcDat(Planilha1!$EJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EJ2:EJ28">_xll.PIAdvCalcDat(Planilha1!$EJ$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>43.586375165126022</v>
       </c>
       <c r="EK2" s="4">
-        <f t="array" ref="EK2:EK22">_xll.PIAdvCalcDat(Planilha1!$EK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
+        <f t="array" ref="EK2:EK28">_xll.PIAdvCalcDat(Planilha1!$EK$1,"01/08/2023","t","1d","average (event-weighted)","event-weighted",0,1,64,"\\GIG02-SVP-PIAF2\ELE - JAN")</f>
         <v>45.174450058353464</v>
       </c>
       <c r="ALM2" s="1"/>
     </row>
     <row r="3" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A3" s="6">
+      <c r="A3" s="3">
         <v>45140</v>
       </c>
       <c r="B3" s="4">
@@ -1865,7 +1864,7 @@
       <c r="N3" s="4">
         <v>61.086273810528077</v>
       </c>
-      <c r="O3" s="3">
+      <c r="O3" s="5">
         <v>65.761716129575234</v>
       </c>
       <c r="P3" s="4">
@@ -2249,7 +2248,7 @@
       <c r="ALM3" s="1"/>
     </row>
     <row r="4" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="3">
         <v>45141</v>
       </c>
       <c r="B4" s="4">
@@ -2291,7 +2290,7 @@
       <c r="N4" s="4">
         <v>62.497557167121265</v>
       </c>
-      <c r="O4" s="3">
+      <c r="O4" s="5">
         <v>66.821090250343175</v>
       </c>
       <c r="P4" s="4">
@@ -2675,7 +2674,7 @@
       <c r="ALM4" s="1"/>
     </row>
     <row r="5" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A5" s="6">
+      <c r="A5" s="3">
         <v>45142</v>
       </c>
       <c r="B5" s="4">
@@ -2717,7 +2716,7 @@
       <c r="N5" s="4">
         <v>60.768219044900263</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="5">
         <v>65.766724270192825</v>
       </c>
       <c r="P5" s="4">
@@ -3101,7 +3100,7 @@
       <c r="ALM5" s="1"/>
     </row>
     <row r="6" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A6" s="6">
+      <c r="A6" s="3">
         <v>45143</v>
       </c>
       <c r="B6" s="4">
@@ -3143,7 +3142,7 @@
       <c r="N6" s="4">
         <v>61.483087309541368</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="5">
         <v>66.00197662959242</v>
       </c>
       <c r="P6" s="4">
@@ -3527,7 +3526,7 @@
       <c r="ALM6" s="1"/>
     </row>
     <row r="7" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
+      <c r="A7" s="3">
         <v>45144</v>
       </c>
       <c r="B7" s="4">
@@ -3569,7 +3568,7 @@
       <c r="N7" s="4">
         <v>51.411643422577576</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="5">
         <v>53.862901527385937</v>
       </c>
       <c r="P7" s="4">
@@ -3953,7 +3952,7 @@
       <c r="ALM7" s="1"/>
     </row>
     <row r="8" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A8" s="6">
+      <c r="A8" s="3">
         <v>45145</v>
       </c>
       <c r="B8" s="4">
@@ -4379,7 +4378,7 @@
       <c r="ALM8" s="1"/>
     </row>
     <row r="9" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A9" s="6">
+      <c r="A9" s="3">
         <v>45146</v>
       </c>
       <c r="B9" s="4">
@@ -4805,7 +4804,7 @@
       <c r="ALM9" s="1"/>
     </row>
     <row r="10" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
+      <c r="A10" s="3">
         <v>45147</v>
       </c>
       <c r="B10" s="4">
@@ -4826,7 +4825,7 @@
       <c r="G10" s="4">
         <v>54.85641774807079</v>
       </c>
-      <c r="H10" s="3">
+      <c r="H10" s="5">
         <v>59.242994072806681</v>
       </c>
       <c r="I10" s="4">
@@ -5231,7 +5230,7 @@
       <c r="ALM10" s="1"/>
     </row>
     <row r="11" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A11" s="6">
+      <c r="A11" s="3">
         <v>45148</v>
       </c>
       <c r="B11" s="4">
@@ -5657,7 +5656,7 @@
       <c r="ALM11" s="1"/>
     </row>
     <row r="12" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A12" s="6">
+      <c r="A12" s="3">
         <v>45149</v>
       </c>
       <c r="B12" s="4">
@@ -6083,7 +6082,7 @@
       <c r="ALM12" s="1"/>
     </row>
     <row r="13" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A13" s="6">
+      <c r="A13" s="3">
         <v>45150</v>
       </c>
       <c r="B13" s="4">
@@ -6509,7 +6508,7 @@
       <c r="ALM13" s="1"/>
     </row>
     <row r="14" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A14" s="6">
+      <c r="A14" s="3">
         <v>45151</v>
       </c>
       <c r="B14" s="4">
@@ -6935,7 +6934,7 @@
       <c r="ALM14" s="1"/>
     </row>
     <row r="15" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
+      <c r="A15" s="3">
         <v>45152</v>
       </c>
       <c r="B15" s="4">
@@ -7361,7 +7360,7 @@
       <c r="ALM15" s="1"/>
     </row>
     <row r="16" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A16" s="6">
+      <c r="A16" s="3">
         <v>45153</v>
       </c>
       <c r="B16" s="4">
@@ -7787,7 +7786,7 @@
       <c r="ALM16" s="1"/>
     </row>
     <row r="17" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A17" s="6">
+      <c r="A17" s="3">
         <v>45154</v>
       </c>
       <c r="B17" s="4">
@@ -8213,7 +8212,7 @@
       <c r="ALM17" s="1"/>
     </row>
     <row r="18" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A18" s="6">
+      <c r="A18" s="3">
         <v>45155</v>
       </c>
       <c r="B18" s="4">
@@ -8639,7 +8638,7 @@
       <c r="ALM18" s="1"/>
     </row>
     <row r="19" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A19" s="6">
+      <c r="A19" s="3">
         <v>45156</v>
       </c>
       <c r="B19" s="4">
@@ -9065,7 +9064,7 @@
       <c r="ALM19" s="1"/>
     </row>
     <row r="20" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A20" s="5">
+      <c r="A20" s="2">
         <v>45157</v>
       </c>
       <c r="B20" s="4">
@@ -9491,7 +9490,7 @@
       <c r="ALM20" s="1"/>
     </row>
     <row r="21" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A21" s="5">
+      <c r="A21" s="2">
         <v>45158</v>
       </c>
       <c r="B21" s="4">
@@ -9917,7 +9916,7 @@
       <c r="ALM21" s="1"/>
     </row>
     <row r="22" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A22" s="5">
+      <c r="A22" s="2">
         <v>45159</v>
       </c>
       <c r="B22" s="4">
@@ -10343,27 +10342,2559 @@
       <c r="ALM22" s="1"/>
     </row>
     <row r="23" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
+      <c r="A23" s="2">
+        <v>45160</v>
+      </c>
+      <c r="B23" s="4">
+        <v>67.405854168540685</v>
+      </c>
+      <c r="C23" s="4">
+        <v>66.626013678845894</v>
+      </c>
+      <c r="D23" s="4">
+        <v>65.913301008731224</v>
+      </c>
+      <c r="E23" s="4">
+        <v>71.321747977559156</v>
+      </c>
+      <c r="F23" s="4">
+        <v>67.552539516493482</v>
+      </c>
+      <c r="G23" s="4">
+        <v>63.594034313412912</v>
+      </c>
+      <c r="H23" s="4">
+        <v>68.14501838481587</v>
+      </c>
+      <c r="I23" s="4">
+        <v>60.164996471683764</v>
+      </c>
+      <c r="J23" s="4">
+        <v>66.916995803650423</v>
+      </c>
+      <c r="K23" s="4">
+        <v>71.095216196472975</v>
+      </c>
+      <c r="L23" s="4">
+        <v>63.733333224341983</v>
+      </c>
+      <c r="M23" s="4">
+        <v>66.663697952694363</v>
+      </c>
+      <c r="N23" s="4">
+        <v>66.360914019493009</v>
+      </c>
+      <c r="O23" s="4">
+        <v>72.052178603855808</v>
+      </c>
+      <c r="P23" s="4">
+        <v>70.340210322681799</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>63.693645061451271</v>
+      </c>
+      <c r="R23" s="4">
+        <v>70.711623581584831</v>
+      </c>
+      <c r="S23" s="4">
+        <v>63.073854187600922</v>
+      </c>
+      <c r="T23" s="4">
+        <v>68.614408331551672</v>
+      </c>
+      <c r="U23" s="4">
+        <v>66.246033092417875</v>
+      </c>
+      <c r="V23" s="4">
+        <v>72.877943014456619</v>
+      </c>
+      <c r="W23" s="4">
+        <v>64.397401312595079</v>
+      </c>
+      <c r="X23" s="4">
+        <v>64.709037737976587</v>
+      </c>
+      <c r="Y23" s="4">
+        <v>64.170217626920504</v>
+      </c>
+      <c r="Z23" s="4">
+        <v>65.00627565728837</v>
+      </c>
+      <c r="AA23" s="4">
+        <v>64.100122876902049</v>
+      </c>
+      <c r="AB23" s="4">
+        <v>64.573597672243196</v>
+      </c>
+      <c r="AC23" s="4">
+        <v>66.234596974737443</v>
+      </c>
+      <c r="AD23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AE23" s="4">
+        <v>60.780267894268036</v>
+      </c>
+      <c r="AF23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG23" s="4">
+        <v>61.618119667025638</v>
+      </c>
+      <c r="AH23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK23" s="4">
+        <v>60.99578430809251</v>
+      </c>
+      <c r="AL23" s="4">
+        <v>61.693828838984388</v>
+      </c>
+      <c r="AM23" s="4">
+        <v>63.032341041272431</v>
+      </c>
+      <c r="AN23" s="4">
+        <v>61.970166928315301</v>
+      </c>
+      <c r="AO23" s="4">
+        <v>61.049204689449041</v>
+      </c>
+      <c r="AP23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ23" s="4">
+        <v>62.646179499456927</v>
+      </c>
+      <c r="AR23" s="4">
+        <v>59.0746172675195</v>
+      </c>
+      <c r="AS23" s="4">
+        <v>61.833067095698638</v>
+      </c>
+      <c r="AT23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU23" s="4">
+        <v>60.789760769546206</v>
+      </c>
+      <c r="AV23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW23" s="4">
+        <v>61.379821001367901</v>
+      </c>
+      <c r="AX23" s="4">
+        <v>62.816555652114744</v>
+      </c>
+      <c r="AY23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ23" s="4">
+        <v>63.891204746581849</v>
+      </c>
+      <c r="BA23" s="4">
+        <v>66.235105587599151</v>
+      </c>
+      <c r="BB23" s="4">
+        <v>62.183417909238138</v>
+      </c>
+      <c r="BC23" s="4">
+        <v>61.195730729251856</v>
+      </c>
+      <c r="BD23" s="4">
+        <v>65.296383404554504</v>
+      </c>
+      <c r="BE23" s="4">
+        <v>60.44272920002561</v>
+      </c>
+      <c r="BF23" s="4">
+        <v>58.830868577733284</v>
+      </c>
+      <c r="BG23" s="4">
+        <v>58.521377663147987</v>
+      </c>
+      <c r="BH23" s="4">
+        <v>59.806769517311807</v>
+      </c>
+      <c r="BI23" s="4">
+        <v>57.323195063390308</v>
+      </c>
+      <c r="BJ23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK23" s="4">
+        <v>60.097896743686888</v>
+      </c>
+      <c r="BL23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BM23" s="4">
+        <v>63.42059551456726</v>
+      </c>
+      <c r="BN23" s="4">
+        <v>64.658182945305455</v>
+      </c>
+      <c r="BO23" s="4">
+        <v>66.410660906269285</v>
+      </c>
+      <c r="BP23" s="4">
+        <v>75.430360920318492</v>
+      </c>
+      <c r="BQ23" s="4">
+        <v>67.792253368951492</v>
+      </c>
+      <c r="BR23" s="4">
+        <v>67.813800396415488</v>
+      </c>
+      <c r="BS23" s="4">
+        <v>64.410439308422795</v>
+      </c>
+      <c r="BT23" s="4">
+        <v>63.389324828700417</v>
+      </c>
+      <c r="BU23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BV23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW23" s="4">
+        <v>60.372168281703317</v>
+      </c>
+      <c r="BX23" s="4">
+        <v>61.687024512452311</v>
+      </c>
+      <c r="BY23" s="4">
+        <v>64.004762377057759</v>
+      </c>
+      <c r="BZ23" s="4">
+        <v>61.686989790728305</v>
+      </c>
+      <c r="CA23" s="4">
+        <v>66.142888574905143</v>
+      </c>
+      <c r="CB23" s="4">
+        <v>59.323781243686021</v>
+      </c>
+      <c r="CC23" s="4">
+        <v>60.040478440736123</v>
+      </c>
+      <c r="CD23" s="4">
+        <v>61.744521106351421</v>
+      </c>
+      <c r="CE23" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF23" s="4">
+        <v>58.194907827268473</v>
+      </c>
+      <c r="CG23" s="4">
+        <v>54.568191966840196</v>
+      </c>
+      <c r="CH23" s="4">
+        <v>64.089687628305882</v>
+      </c>
+      <c r="CI23" s="4">
+        <v>64.460366540819464</v>
+      </c>
+      <c r="CJ23" s="4">
+        <v>62.837280786788845</v>
+      </c>
+      <c r="CK23" s="4">
+        <v>68.967711926050299</v>
+      </c>
+      <c r="CL23" s="4">
+        <v>64.283541403005415</v>
+      </c>
+      <c r="CM23" s="4">
+        <v>63.332975071013834</v>
+      </c>
+      <c r="CN23" s="4">
+        <v>64.622409003071169</v>
+      </c>
+      <c r="CO23" s="4">
+        <v>70.974809303548824</v>
+      </c>
+      <c r="CP23" s="4">
+        <v>69.78675889339759</v>
+      </c>
+      <c r="CQ23" s="4">
+        <v>65.661559859001997</v>
+      </c>
+      <c r="CR23" s="4">
+        <v>63.768245968123466</v>
+      </c>
+      <c r="CS23" s="4">
+        <v>65.394516896540495</v>
+      </c>
+      <c r="CT23" s="4">
+        <v>66.034135439290665</v>
+      </c>
+      <c r="CU23" s="4">
+        <v>65.022777974210825</v>
+      </c>
+      <c r="CV23" s="4">
+        <v>50.062580351375793</v>
+      </c>
+      <c r="CW23" s="4">
+        <v>50.581341880209308</v>
+      </c>
+      <c r="CX23" s="4">
+        <v>52.836565434182688</v>
+      </c>
+      <c r="CY23" s="4">
+        <v>46.34630996450727</v>
+      </c>
+      <c r="CZ23" s="4">
+        <v>47.872961278432427</v>
+      </c>
+      <c r="DA23" s="4">
+        <v>54.699078404275994</v>
+      </c>
+      <c r="DB23" s="4">
+        <v>52.322660778001037</v>
+      </c>
+      <c r="DC23" s="4">
+        <v>54.68234794800923</v>
+      </c>
+      <c r="DD23" s="4">
+        <v>52.601594813392488</v>
+      </c>
+      <c r="DE23" s="4">
+        <v>42.587314237097445</v>
+      </c>
+      <c r="DF23" s="4">
+        <v>52.059473924469529</v>
+      </c>
+      <c r="DG23" s="4">
+        <v>50.051987173447358</v>
+      </c>
+      <c r="DH23" s="4">
+        <v>56.799520685522957</v>
+      </c>
+      <c r="DI23" s="4">
+        <v>50.530229051114894</v>
+      </c>
+      <c r="DJ23" s="4">
+        <v>51.009490293023454</v>
+      </c>
+      <c r="DK23" s="4">
+        <v>51.936514809336217</v>
+      </c>
+      <c r="DL23" s="4">
+        <v>56.080448271057996</v>
+      </c>
+      <c r="DM23" s="4">
+        <v>45.761893155539283</v>
+      </c>
+      <c r="DN23" s="4">
+        <v>51.460891402748047</v>
+      </c>
+      <c r="DO23" s="4">
+        <v>54.528720363960446</v>
+      </c>
+      <c r="DP23" s="4">
+        <v>50.805079586673997</v>
+      </c>
+      <c r="DQ23" s="4">
+        <v>50.944638193225281</v>
+      </c>
+      <c r="DR23" s="4">
+        <v>47.29567084277771</v>
+      </c>
+      <c r="DS23" s="4">
+        <v>54.329498544203496</v>
+      </c>
+      <c r="DT23" s="4">
+        <v>51.663411280803864</v>
+      </c>
+      <c r="DU23" s="4">
+        <v>54.903263441795701</v>
+      </c>
+      <c r="DV23" s="4">
+        <v>50.721039172534844</v>
+      </c>
+      <c r="DW23" s="4">
+        <v>54.354266995152443</v>
+      </c>
+      <c r="DX23" s="4">
+        <v>43.420134916616639</v>
+      </c>
+      <c r="DY23" s="4">
+        <v>45.726167488829894</v>
+      </c>
+      <c r="DZ23" s="4">
+        <v>51.23236360954516</v>
+      </c>
+      <c r="EA23" s="4">
+        <v>45.411013871284382</v>
+      </c>
+      <c r="EB23" s="4">
+        <v>52.935254054326194</v>
+      </c>
+      <c r="EC23" s="4">
+        <v>51.201198600742913</v>
+      </c>
+      <c r="ED23" s="4">
+        <v>44.303837267508989</v>
+      </c>
+      <c r="EE23" s="4">
+        <v>48.907872544377362</v>
+      </c>
+      <c r="EF23" s="4">
+        <v>54.045539930579437</v>
+      </c>
+      <c r="EG23" s="4">
+        <v>50.235188516722978</v>
+      </c>
+      <c r="EH23" s="4">
+        <v>53.924543270144412</v>
+      </c>
+      <c r="EI23" s="4">
+        <v>47.247671719760319</v>
+      </c>
+      <c r="EJ23" s="4">
+        <v>47.73948010305967</v>
+      </c>
+      <c r="EK23" s="4">
+        <v>51.255050129769117</v>
+      </c>
       <c r="ALM23" s="1"/>
     </row>
     <row r="24" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A24" s="1"/>
+      <c r="A24" s="2">
+        <v>45161</v>
+      </c>
+      <c r="B24" s="4">
+        <v>70.295484599262906</v>
+      </c>
+      <c r="C24" s="4">
+        <v>67.784252953346922</v>
+      </c>
+      <c r="D24" s="4">
+        <v>66.630305574219577</v>
+      </c>
+      <c r="E24" s="4">
+        <v>71.189082608000206</v>
+      </c>
+      <c r="F24" s="4">
+        <v>67.862843824121654</v>
+      </c>
+      <c r="G24" s="4">
+        <v>64.214846214200278</v>
+      </c>
+      <c r="H24" s="4">
+        <v>68.207500512668091</v>
+      </c>
+      <c r="I24" s="4">
+        <v>61.246781122019364</v>
+      </c>
+      <c r="J24" s="4">
+        <v>67.3804501743233</v>
+      </c>
+      <c r="K24" s="4">
+        <v>71.215092303455094</v>
+      </c>
+      <c r="L24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M24" s="4">
+        <v>66.565381334005707</v>
+      </c>
+      <c r="N24" s="4">
+        <v>65.712968747097293</v>
+      </c>
+      <c r="O24" s="4">
+        <v>70.390827776953401</v>
+      </c>
+      <c r="P24" s="4">
+        <v>70.525913276945872</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>64.277132669672184</v>
+      </c>
+      <c r="R24" s="4">
+        <v>70.426004949900147</v>
+      </c>
+      <c r="S24" s="4">
+        <v>63.145319989837411</v>
+      </c>
+      <c r="T24" s="4">
+        <v>69.173887547848182</v>
+      </c>
+      <c r="U24" s="4">
+        <v>66.588670348543872</v>
+      </c>
+      <c r="V24" s="4">
+        <v>71.807156240698959</v>
+      </c>
+      <c r="W24" s="4">
+        <v>65.01225015701965</v>
+      </c>
+      <c r="X24" s="4">
+        <v>64.918738984686783</v>
+      </c>
+      <c r="Y24" s="4">
+        <v>63.765988293308673</v>
+      </c>
+      <c r="Z24" s="4">
+        <v>65.133239421994247</v>
+      </c>
+      <c r="AA24" s="4">
+        <v>64.359451345594991</v>
+      </c>
+      <c r="AB24" s="4">
+        <v>64.579168133471768</v>
+      </c>
+      <c r="AC24" s="4">
+        <v>66.14167342894838</v>
+      </c>
+      <c r="AD24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AE24" s="4">
+        <v>62.104826495041749</v>
+      </c>
+      <c r="AF24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG24" s="4">
+        <v>63.086139407116825</v>
+      </c>
+      <c r="AH24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK24" s="4">
+        <v>63.320113268905878</v>
+      </c>
+      <c r="AL24" s="4">
+        <v>63.715937477839091</v>
+      </c>
+      <c r="AM24" s="4">
+        <v>65.187027744810564</v>
+      </c>
+      <c r="AN24" s="4">
+        <v>64.300698849339838</v>
+      </c>
+      <c r="AO24" s="4">
+        <v>62.905143697936779</v>
+      </c>
+      <c r="AP24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ24" s="4">
+        <v>65.09958949425733</v>
+      </c>
+      <c r="AR24" s="4">
+        <v>62.146586604880284</v>
+      </c>
+      <c r="AS24" s="4">
+        <v>64.863628987343077</v>
+      </c>
+      <c r="AT24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU24" s="4">
+        <v>63.686548450826358</v>
+      </c>
+      <c r="AV24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW24" s="4">
+        <v>63.808398790224757</v>
+      </c>
+      <c r="AX24" s="4">
+        <v>65.884196994860389</v>
+      </c>
+      <c r="AY24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ24" s="4">
+        <v>66.809543826454558</v>
+      </c>
+      <c r="BA24" s="4">
+        <v>69.76572703749207</v>
+      </c>
+      <c r="BB24" s="4">
+        <v>65.45627500380067</v>
+      </c>
+      <c r="BC24" s="4">
+        <v>64.126007894282282</v>
+      </c>
+      <c r="BD24" s="4">
+        <v>67.153339836746454</v>
+      </c>
+      <c r="BE24" s="4">
+        <v>60.779468126147357</v>
+      </c>
+      <c r="BF24" s="4">
+        <v>60.047995640681343</v>
+      </c>
+      <c r="BG24" s="4">
+        <v>60.679955711660462</v>
+      </c>
+      <c r="BH24" s="4">
+        <v>63.453221887847974</v>
+      </c>
+      <c r="BI24" s="4">
+        <v>59.476169054133806</v>
+      </c>
+      <c r="BJ24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK24" s="4">
+        <v>62.025089612571144</v>
+      </c>
+      <c r="BL24" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="4">
+        <v>65.358916676839186</v>
+      </c>
+      <c r="BN24" s="4">
+        <v>66.794316599119142</v>
+      </c>
+      <c r="BO24" s="4">
+        <v>68.168591484072806</v>
+      </c>
+      <c r="BP24" s="4">
+        <v>76.834565804391673</v>
+      </c>
+      <c r="BQ24" s="4">
+        <v>69.788107543939503</v>
+      </c>
+      <c r="BR24" s="4">
+        <v>69.704633418286292</v>
+      </c>
+      <c r="BS24" s="4">
+        <v>66.059512023035509</v>
+      </c>
+      <c r="BT24" s="4">
+        <v>65.176867883790209</v>
+      </c>
+      <c r="BU24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BV24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW24" s="4">
+        <v>61.962010334970678</v>
+      </c>
+      <c r="BX24" s="4">
+        <v>61.862656576432627</v>
+      </c>
+      <c r="BY24" s="4">
+        <v>63.287499904632568</v>
+      </c>
+      <c r="BZ24" s="4">
+        <v>63.890784479331536</v>
+      </c>
+      <c r="CA24" s="4">
+        <v>66.546242186321351</v>
+      </c>
+      <c r="CB24" s="4">
+        <v>59.961674005449609</v>
+      </c>
+      <c r="CC24" s="4">
+        <v>61.152234660313781</v>
+      </c>
+      <c r="CD24" s="4">
+        <v>62.449648837021215</v>
+      </c>
+      <c r="CE24" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF24" s="4">
+        <v>60.117723592122395</v>
+      </c>
+      <c r="CG24" s="4">
+        <v>57.71169386517046</v>
+      </c>
+      <c r="CH24" s="4">
+        <v>66.378441180848711</v>
+      </c>
+      <c r="CI24" s="4">
+        <v>66.570994944559374</v>
+      </c>
+      <c r="CJ24" s="4">
+        <v>65.503534609047605</v>
+      </c>
+      <c r="CK24" s="4">
+        <v>72.666891307479972</v>
+      </c>
+      <c r="CL24" s="4">
+        <v>66.755917316951027</v>
+      </c>
+      <c r="CM24" s="4">
+        <v>66.757617333477583</v>
+      </c>
+      <c r="CN24" s="4">
+        <v>66.284164396666114</v>
+      </c>
+      <c r="CO24" s="4">
+        <v>73.13858069699728</v>
+      </c>
+      <c r="CP24" s="4">
+        <v>71.771307070874798</v>
+      </c>
+      <c r="CQ24" s="4">
+        <v>68.316319494165285</v>
+      </c>
+      <c r="CR24" s="4">
+        <v>65.65911781616623</v>
+      </c>
+      <c r="CS24" s="4">
+        <v>67.007653741792595</v>
+      </c>
+      <c r="CT24" s="4">
+        <v>66.892312671089073</v>
+      </c>
+      <c r="CU24" s="4">
+        <v>66.492168334387117</v>
+      </c>
+      <c r="CV24" s="4">
+        <v>50.542495712183751</v>
+      </c>
+      <c r="CW24" s="4">
+        <v>49.85661085935056</v>
+      </c>
+      <c r="CX24" s="4">
+        <v>49.557676209783487</v>
+      </c>
+      <c r="CY24" s="4">
+        <v>46.559865413917734</v>
+      </c>
+      <c r="CZ24" s="4">
+        <v>50.855867771891248</v>
+      </c>
+      <c r="DA24" s="4">
+        <v>51.719822041415803</v>
+      </c>
+      <c r="DB24" s="4">
+        <v>52.276322137609611</v>
+      </c>
+      <c r="DC24" s="4">
+        <v>50.046962302336574</v>
+      </c>
+      <c r="DD24" s="4">
+        <v>50.288020869999222</v>
+      </c>
+      <c r="DE24" s="4">
+        <v>41.060086159532418</v>
+      </c>
+      <c r="DF24" s="4">
+        <v>47.397597145979681</v>
+      </c>
+      <c r="DG24" s="4">
+        <v>49.449901028120088</v>
+      </c>
+      <c r="DH24" s="4">
+        <v>57.330434723637531</v>
+      </c>
+      <c r="DI24" s="4">
+        <v>50.357169433678997</v>
+      </c>
+      <c r="DJ24" s="4">
+        <v>50.909420921181933</v>
+      </c>
+      <c r="DK24" s="4">
+        <v>50.102618687404259</v>
+      </c>
+      <c r="DL24" s="4">
+        <v>54.070391999372745</v>
+      </c>
+      <c r="DM24" s="4">
+        <v>46.365873726348717</v>
+      </c>
+      <c r="DN24" s="4">
+        <v>43.893375949153842</v>
+      </c>
+      <c r="DO24" s="4">
+        <v>52.804333214759829</v>
+      </c>
+      <c r="DP24" s="4">
+        <v>49.744270770322707</v>
+      </c>
+      <c r="DQ24" s="4">
+        <v>50.266479802354475</v>
+      </c>
+      <c r="DR24" s="4">
+        <v>46.796663951637136</v>
+      </c>
+      <c r="DS24" s="4">
+        <v>48.521027649004843</v>
+      </c>
+      <c r="DT24" s="4">
+        <v>50.675951663244888</v>
+      </c>
+      <c r="DU24" s="4">
+        <v>52.368369950343222</v>
+      </c>
+      <c r="DV24" s="4">
+        <v>51.54809335069217</v>
+      </c>
+      <c r="DW24" s="4">
+        <v>54.129879237660461</v>
+      </c>
+      <c r="DX24" s="4">
+        <v>43.492889475131378</v>
+      </c>
+      <c r="DY24" s="4">
+        <v>43.826128759897124</v>
+      </c>
+      <c r="DZ24" s="4">
+        <v>45.048605221917271</v>
+      </c>
+      <c r="EA24" s="4">
+        <v>45.554561145861761</v>
+      </c>
+      <c r="EB24" s="4">
+        <v>49.210048625588271</v>
+      </c>
+      <c r="EC24" s="4">
+        <v>48.054093755820439</v>
+      </c>
+      <c r="ED24" s="4">
+        <v>43.053813209324218</v>
+      </c>
+      <c r="EE24" s="4">
+        <v>49.864306965589101</v>
+      </c>
+      <c r="EF24" s="4">
+        <v>51.856216490800577</v>
+      </c>
+      <c r="EG24" s="4">
+        <v>47.80487126846154</v>
+      </c>
+      <c r="EH24" s="4">
+        <v>51.054347879990289</v>
+      </c>
+      <c r="EI24" s="4">
+        <v>46.042312883794608</v>
+      </c>
+      <c r="EJ24" s="4">
+        <v>46.728264067222526</v>
+      </c>
+      <c r="EK24" s="4">
+        <v>46.812521098638641</v>
+      </c>
       <c r="ALM24" s="1"/>
     </row>
     <row r="25" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A25" s="1"/>
+      <c r="A25" s="2">
+        <v>45162</v>
+      </c>
+      <c r="B25" s="4">
+        <v>66.744684427837996</v>
+      </c>
+      <c r="C25" s="4">
+        <v>65.076140764180636</v>
+      </c>
+      <c r="D25" s="4">
+        <v>64.663064296529328</v>
+      </c>
+      <c r="E25" s="4">
+        <v>70.102578665969588</v>
+      </c>
+      <c r="F25" s="4">
+        <v>65.262019297907074</v>
+      </c>
+      <c r="G25" s="4">
+        <v>63.784891919712194</v>
+      </c>
+      <c r="H25" s="4">
+        <v>66.51089828721814</v>
+      </c>
+      <c r="I25" s="4">
+        <v>59.730964745309372</v>
+      </c>
+      <c r="J25" s="4">
+        <v>66.581973427746334</v>
+      </c>
+      <c r="K25" s="4">
+        <v>68.59607283776748</v>
+      </c>
+      <c r="L25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M25" s="4">
+        <v>67.078158976591155</v>
+      </c>
+      <c r="N25" s="4">
+        <v>66.593330255733079</v>
+      </c>
+      <c r="O25" s="4">
+        <v>71.213281287596772</v>
+      </c>
+      <c r="P25" s="4">
+        <v>68.346845564800702</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>64.035784795120307</v>
+      </c>
+      <c r="R25" s="4">
+        <v>69.49166960199355</v>
+      </c>
+      <c r="S25" s="4">
+        <v>62.942802357512697</v>
+      </c>
+      <c r="T25" s="4">
+        <v>67.66820022976033</v>
+      </c>
+      <c r="U25" s="4">
+        <v>65.465777170904232</v>
+      </c>
+      <c r="V25" s="4">
+        <v>70.077740491983221</v>
+      </c>
+      <c r="W25" s="4">
+        <v>63.811033208416994</v>
+      </c>
+      <c r="X25" s="4">
+        <v>63.973129484664334</v>
+      </c>
+      <c r="Y25" s="4">
+        <v>63.433257444726728</v>
+      </c>
+      <c r="Z25" s="4">
+        <v>65.355224717604173</v>
+      </c>
+      <c r="AA25" s="4">
+        <v>64.070699675384574</v>
+      </c>
+      <c r="AB25" s="4">
+        <v>64.652603498171402</v>
+      </c>
+      <c r="AC25" s="4">
+        <v>66.615700339624951</v>
+      </c>
+      <c r="AD25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AE25" s="4">
+        <v>60.655291849727831</v>
+      </c>
+      <c r="AF25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG25" s="4">
+        <v>60.149615560930535</v>
+      </c>
+      <c r="AH25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK25" s="4">
+        <v>61.182037418547885</v>
+      </c>
+      <c r="AL25" s="4">
+        <v>61.84824002464466</v>
+      </c>
+      <c r="AM25" s="4">
+        <v>63.305610069235847</v>
+      </c>
+      <c r="AN25" s="4">
+        <v>62.125330363935504</v>
+      </c>
+      <c r="AO25" s="4">
+        <v>60.574373642211604</v>
+      </c>
+      <c r="AP25" s="4">
+        <v>0</v>
+      </c>
+      <c r="AQ25" s="4">
+        <v>61.89110710942964</v>
+      </c>
+      <c r="AR25" s="4">
+        <v>59.486130254752794</v>
+      </c>
+      <c r="AS25" s="4">
+        <v>61.594037035706108</v>
+      </c>
+      <c r="AT25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU25" s="4">
+        <v>59.70834587558312</v>
+      </c>
+      <c r="AV25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW25" s="4">
+        <v>60.834210585939445</v>
+      </c>
+      <c r="AX25" s="4">
+        <v>59.937368172584307</v>
+      </c>
+      <c r="AY25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ25" s="4">
+        <v>62.062815586665067</v>
+      </c>
+      <c r="BA25" s="4">
+        <v>65.038762728124269</v>
+      </c>
+      <c r="BB25" s="4">
+        <v>61.265897867117921</v>
+      </c>
+      <c r="BC25" s="4">
+        <v>59.621568632654316</v>
+      </c>
+      <c r="BD25" s="4">
+        <v>63.263629180986968</v>
+      </c>
+      <c r="BE25" s="4">
+        <v>56.918617572639242</v>
+      </c>
+      <c r="BF25" s="4">
+        <v>57.608877856987178</v>
+      </c>
+      <c r="BG25" s="4">
+        <v>58.290863595707094</v>
+      </c>
+      <c r="BH25" s="4">
+        <v>58.899074079211715</v>
+      </c>
+      <c r="BI25" s="4">
+        <v>55.891029008984461</v>
+      </c>
+      <c r="BJ25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK25" s="4">
+        <v>57.708704101739585</v>
+      </c>
+      <c r="BL25" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="4">
+        <v>60.878806957627894</v>
+      </c>
+      <c r="BN25" s="4">
+        <v>62.305378373553054</v>
+      </c>
+      <c r="BO25" s="4">
+        <v>63.59974720474542</v>
+      </c>
+      <c r="BP25" s="4">
+        <v>68.809845933958897</v>
+      </c>
+      <c r="BQ25" s="4">
+        <v>65.373462829039752</v>
+      </c>
+      <c r="BR25" s="4">
+        <v>67.057029188486936</v>
+      </c>
+      <c r="BS25" s="4">
+        <v>63.777048934803929</v>
+      </c>
+      <c r="BT25" s="4">
+        <v>64.540011867205237</v>
+      </c>
+      <c r="BU25" s="4">
+        <v>72.599998474121094</v>
+      </c>
+      <c r="BV25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW25" s="4">
+        <v>62.190140811136864</v>
+      </c>
+      <c r="BX25" s="4">
+        <v>63.137029436769865</v>
+      </c>
+      <c r="BY25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BZ25" s="4">
+        <v>64.839356809443757</v>
+      </c>
+      <c r="CA25" s="4">
+        <v>67.705100972644829</v>
+      </c>
+      <c r="CB25" s="4">
+        <v>60.533975093578022</v>
+      </c>
+      <c r="CC25" s="4">
+        <v>60.928410757089736</v>
+      </c>
+      <c r="CD25" s="4">
+        <v>62.439800370331987</v>
+      </c>
+      <c r="CE25" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF25" s="4">
+        <v>61.150763071205724</v>
+      </c>
+      <c r="CG25" s="4">
+        <v>57.629255172417828</v>
+      </c>
+      <c r="CH25" s="4">
+        <v>62.96717362107735</v>
+      </c>
+      <c r="CI25" s="4">
+        <v>63.191828309660352</v>
+      </c>
+      <c r="CJ25" s="4">
+        <v>61.446324967824907</v>
+      </c>
+      <c r="CK25" s="4">
+        <v>65.869676537634803</v>
+      </c>
+      <c r="CL25" s="4">
+        <v>62.602495611670186</v>
+      </c>
+      <c r="CM25" s="4">
+        <v>63.119104588551671</v>
+      </c>
+      <c r="CN25" s="4">
+        <v>61.977288655625188</v>
+      </c>
+      <c r="CO25" s="4">
+        <v>66.980511707128073</v>
+      </c>
+      <c r="CP25" s="4">
+        <v>67.033415278932068</v>
+      </c>
+      <c r="CQ25" s="4">
+        <v>64.058477273447664</v>
+      </c>
+      <c r="CR25" s="4">
+        <v>62.481367329439706</v>
+      </c>
+      <c r="CS25" s="4">
+        <v>62.689985408302448</v>
+      </c>
+      <c r="CT25" s="4">
+        <v>63.77790163230798</v>
+      </c>
+      <c r="CU25" s="4">
+        <v>63.449642263933995</v>
+      </c>
+      <c r="CV25" s="4">
+        <v>47.754756183338763</v>
+      </c>
+      <c r="CW25" s="4">
+        <v>48.614843183194942</v>
+      </c>
+      <c r="CX25" s="4">
+        <v>47.052022055004862</v>
+      </c>
+      <c r="CY25" s="4">
+        <v>46.282800370916995</v>
+      </c>
+      <c r="CZ25" s="4">
+        <v>45.301212102716619</v>
+      </c>
+      <c r="DA25" s="4">
+        <v>51.263585786942855</v>
+      </c>
+      <c r="DB25" s="4">
+        <v>49.228164103039312</v>
+      </c>
+      <c r="DC25" s="4">
+        <v>52.121335311386098</v>
+      </c>
+      <c r="DD25" s="4">
+        <v>49.326617622676487</v>
+      </c>
+      <c r="DE25" s="4">
+        <v>41.642150263086521</v>
+      </c>
+      <c r="DF25" s="4">
+        <v>46.85747555507259</v>
+      </c>
+      <c r="DG25" s="4">
+        <v>49.482753035388413</v>
+      </c>
+      <c r="DH25" s="4">
+        <v>56.452861965706049</v>
+      </c>
+      <c r="DI25" s="4">
+        <v>48.509682607337737</v>
+      </c>
+      <c r="DJ25" s="4">
+        <v>51.985984500481564</v>
+      </c>
+      <c r="DK25" s="4">
+        <v>48.63318350976575</v>
+      </c>
+      <c r="DL25" s="4">
+        <v>52.009918049750702</v>
+      </c>
+      <c r="DM25" s="4">
+        <v>45.711246516323349</v>
+      </c>
+      <c r="DN25" s="4">
+        <v>49.942722225189208</v>
+      </c>
+      <c r="DO25" s="4">
+        <v>49.178740734524197</v>
+      </c>
+      <c r="DP25" s="4">
+        <v>46.075248005371769</v>
+      </c>
+      <c r="DQ25" s="4">
+        <v>51.279127978528713</v>
+      </c>
+      <c r="DR25" s="4">
+        <v>50.760137588595938</v>
+      </c>
+      <c r="DS25" s="4">
+        <v>50.314254825007069</v>
+      </c>
+      <c r="DT25" s="4">
+        <v>50.716307553983945</v>
+      </c>
+      <c r="DU25" s="4">
+        <v>52.373173020436212</v>
+      </c>
+      <c r="DV25" s="4">
+        <v>51.764167543808703</v>
+      </c>
+      <c r="DW25" s="4">
+        <v>54.783679220811379</v>
+      </c>
+      <c r="DX25" s="4">
+        <v>42.977015434679132</v>
+      </c>
+      <c r="DY25" s="4">
+        <v>44.066083378079611</v>
+      </c>
+      <c r="DZ25" s="4">
+        <v>45.660141363245017</v>
+      </c>
+      <c r="EA25" s="4">
+        <v>46.399163434974852</v>
+      </c>
+      <c r="EB25" s="4">
+        <v>47.000561535510556</v>
+      </c>
+      <c r="EC25" s="4">
+        <v>48.716711734423065</v>
+      </c>
+      <c r="ED25" s="4">
+        <v>44.814303461316939</v>
+      </c>
+      <c r="EE25" s="4">
+        <v>48.377121656999989</v>
+      </c>
+      <c r="EF25" s="4">
+        <v>50.252122637703422</v>
+      </c>
+      <c r="EG25" s="4">
+        <v>45.361637107954458</v>
+      </c>
+      <c r="EH25" s="4">
+        <v>48.833812359046334</v>
+      </c>
+      <c r="EI25" s="4">
+        <v>48.079999986413405</v>
+      </c>
+      <c r="EJ25" s="4">
+        <v>45.190999200560498</v>
+      </c>
+      <c r="EK25" s="4">
+        <v>43.809363096085143</v>
+      </c>
       <c r="ALM25" s="1"/>
     </row>
     <row r="26" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A26" s="1"/>
+      <c r="A26" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B26" s="4">
+        <v>68.047596084547564</v>
+      </c>
+      <c r="C26" s="4">
+        <v>65.952661377586239</v>
+      </c>
+      <c r="D26" s="4">
+        <v>64.236313358364058</v>
+      </c>
+      <c r="E26" s="4">
+        <v>69.661945223618559</v>
+      </c>
+      <c r="F26" s="4">
+        <v>64.959920342464017</v>
+      </c>
+      <c r="G26" s="4">
+        <v>62.310138734010152</v>
+      </c>
+      <c r="H26" s="4">
+        <v>65.560184570124747</v>
+      </c>
+      <c r="I26" s="4">
+        <v>59.240916549713262</v>
+      </c>
+      <c r="J26" s="4">
+        <v>65.073627721510789</v>
+      </c>
+      <c r="K26" s="4">
+        <v>67.365011685190794</v>
+      </c>
+      <c r="L26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M26" s="4">
+        <v>64.473956190357981</v>
+      </c>
+      <c r="N26" s="4">
+        <v>63.337402831709241</v>
+      </c>
+      <c r="O26" s="4">
+        <v>68.252581461750381</v>
+      </c>
+      <c r="P26" s="4">
+        <v>66.88045915222439</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>62.247355285123341</v>
+      </c>
+      <c r="R26" s="4">
+        <v>66.55337042561284</v>
+      </c>
+      <c r="S26" s="4">
+        <v>60.669383237941801</v>
+      </c>
+      <c r="T26" s="4">
+        <v>65.004900149515493</v>
+      </c>
+      <c r="U26" s="4">
+        <v>61.96380951518104</v>
+      </c>
+      <c r="V26" s="4">
+        <v>66.279554936585654</v>
+      </c>
+      <c r="W26" s="4">
+        <v>61.965687852424765</v>
+      </c>
+      <c r="X26" s="4">
+        <v>61.685043146340504</v>
+      </c>
+      <c r="Y26" s="4">
+        <v>61.204952561161612</v>
+      </c>
+      <c r="Z26" s="4">
+        <v>62.031896888564397</v>
+      </c>
+      <c r="AA26" s="4">
+        <v>61.123923719469516</v>
+      </c>
+      <c r="AB26" s="4">
+        <v>59.733655711898955</v>
+      </c>
+      <c r="AC26" s="4">
+        <v>61.095360496884936</v>
+      </c>
+      <c r="AD26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AE26" s="4">
+        <v>57.093625885356175</v>
+      </c>
+      <c r="AF26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG26" s="4">
+        <v>57.027161195417307</v>
+      </c>
+      <c r="AH26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK26" s="4">
+        <v>57.462151488908567</v>
+      </c>
+      <c r="AL26" s="4">
+        <v>57.245339079762736</v>
+      </c>
+      <c r="AM26" s="4">
+        <v>59.562687859922626</v>
+      </c>
+      <c r="AN26" s="4">
+        <v>57.837461996242816</v>
+      </c>
+      <c r="AO26" s="4">
+        <v>57.053509414678736</v>
+      </c>
+      <c r="AP26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ26" s="4">
+        <v>58.198575885233453</v>
+      </c>
+      <c r="AR26" s="4">
+        <v>56.38803982972307</v>
+      </c>
+      <c r="AS26" s="4">
+        <v>59.203442507086436</v>
+      </c>
+      <c r="AT26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU26" s="4">
+        <v>56.697385380967027</v>
+      </c>
+      <c r="AV26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW26" s="4">
+        <v>58.162677188182442</v>
+      </c>
+      <c r="AX26" s="4">
+        <v>57.215538616777565</v>
+      </c>
+      <c r="AY26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ26" s="4">
+        <v>59.55338292458687</v>
+      </c>
+      <c r="BA26" s="4">
+        <v>63.16861991323502</v>
+      </c>
+      <c r="BB26" s="4">
+        <v>58.870731648390858</v>
+      </c>
+      <c r="BC26" s="4">
+        <v>57.521169693898131</v>
+      </c>
+      <c r="BD26" s="4">
+        <v>60.34866194441674</v>
+      </c>
+      <c r="BE26" s="4">
+        <v>53.576921585567021</v>
+      </c>
+      <c r="BF26" s="4">
+        <v>56.627912948745163</v>
+      </c>
+      <c r="BG26" s="4">
+        <v>56.734620397462194</v>
+      </c>
+      <c r="BH26" s="4">
+        <v>57.263386176763923</v>
+      </c>
+      <c r="BI26" s="4">
+        <v>53.806603772785181</v>
+      </c>
+      <c r="BJ26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK26" s="4">
+        <v>57.945824461779708</v>
+      </c>
+      <c r="BL26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BM26" s="4">
+        <v>59.169210288410575</v>
+      </c>
+      <c r="BN26" s="4">
+        <v>60.437585389344051</v>
+      </c>
+      <c r="BO26" s="4">
+        <v>61.833078706938188</v>
+      </c>
+      <c r="BP26" s="4">
+        <v>67.642597229489169</v>
+      </c>
+      <c r="BQ26" s="4">
+        <v>62.318438003888026</v>
+      </c>
+      <c r="BR26" s="4">
+        <v>62.926921160697773</v>
+      </c>
+      <c r="BS26" s="4">
+        <v>60.321600042591925</v>
+      </c>
+      <c r="BT26" s="4">
+        <v>58.952315793644061</v>
+      </c>
+      <c r="BU26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BV26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW26" s="4">
+        <v>56.795210563476964</v>
+      </c>
+      <c r="BX26" s="4">
+        <v>56.595987220795472</v>
+      </c>
+      <c r="BY26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BZ26" s="4">
+        <v>58.508609291733492</v>
+      </c>
+      <c r="CA26" s="4">
+        <v>62.187052035469542</v>
+      </c>
+      <c r="CB26" s="4">
+        <v>56.87182745473639</v>
+      </c>
+      <c r="CC26" s="4">
+        <v>56.965780423420163</v>
+      </c>
+      <c r="CD26" s="4">
+        <v>57.76992117035671</v>
+      </c>
+      <c r="CE26" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF26" s="4">
+        <v>59.258085267733684</v>
+      </c>
+      <c r="CG26" s="4">
+        <v>54.708458862871346</v>
+      </c>
+      <c r="CH26" s="4">
+        <v>58.96199702750296</v>
+      </c>
+      <c r="CI26" s="4">
+        <v>60.295353291938341</v>
+      </c>
+      <c r="CJ26" s="4">
+        <v>59.004194748133266</v>
+      </c>
+      <c r="CK26" s="4">
+        <v>61.334751350224089</v>
+      </c>
+      <c r="CL26" s="4">
+        <v>59.588412960710841</v>
+      </c>
+      <c r="CM26" s="4">
+        <v>59.381704656706233</v>
+      </c>
+      <c r="CN26" s="4">
+        <v>59.473715602514353</v>
+      </c>
+      <c r="CO26" s="4">
+        <v>64.220415015157343</v>
+      </c>
+      <c r="CP26" s="4">
+        <v>64.26420173963507</v>
+      </c>
+      <c r="CQ26" s="4">
+        <v>61.205413475971632</v>
+      </c>
+      <c r="CR26" s="4">
+        <v>59.37856753882803</v>
+      </c>
+      <c r="CS26" s="4">
+        <v>60.863504779884913</v>
+      </c>
+      <c r="CT26" s="4">
+        <v>61.242424264883063</v>
+      </c>
+      <c r="CU26" s="4">
+        <v>60.595318730717992</v>
+      </c>
+      <c r="CV26" s="4">
+        <v>50.591327342152773</v>
+      </c>
+      <c r="CW26" s="4">
+        <v>49.374979188812837</v>
+      </c>
+      <c r="CX26" s="4">
+        <v>48.80614470793342</v>
+      </c>
+      <c r="CY26" s="4">
+        <v>46.068808170226255</v>
+      </c>
+      <c r="CZ26" s="4">
+        <v>44.766563276166885</v>
+      </c>
+      <c r="DA26" s="4">
+        <v>51.631131164412693</v>
+      </c>
+      <c r="DB26" s="4">
+        <v>49.736214919996414</v>
+      </c>
+      <c r="DC26" s="4">
+        <v>50.460185150506121</v>
+      </c>
+      <c r="DD26" s="4">
+        <v>48.330217833912698</v>
+      </c>
+      <c r="DE26" s="4">
+        <v>41.86294330327889</v>
+      </c>
+      <c r="DF26" s="4">
+        <v>48.574438548660574</v>
+      </c>
+      <c r="DG26" s="4">
+        <v>50.554254140462483</v>
+      </c>
+      <c r="DH26" s="4">
+        <v>57.922848636389489</v>
+      </c>
+      <c r="DI26" s="4">
+        <v>51.260577743906232</v>
+      </c>
+      <c r="DJ26" s="4">
+        <v>50.72386248118957</v>
+      </c>
+      <c r="DK26" s="4">
+        <v>47.378823352888517</v>
+      </c>
+      <c r="DL26" s="4">
+        <v>53.370422627444562</v>
+      </c>
+      <c r="DM26" s="4">
+        <v>47.434969762867539</v>
+      </c>
+      <c r="DN26" s="4">
+        <v>52.866184663189131</v>
+      </c>
+      <c r="DO26" s="4">
+        <v>52.712512682801226</v>
+      </c>
+      <c r="DP26" s="4">
+        <v>47.855133328017637</v>
+      </c>
+      <c r="DQ26" s="4">
+        <v>49.234208320573863</v>
+      </c>
+      <c r="DR26" s="4">
+        <v>50.884738363960913</v>
+      </c>
+      <c r="DS26" s="4">
+        <v>49.60937497149343</v>
+      </c>
+      <c r="DT26" s="4">
+        <v>47.750900982889888</v>
+      </c>
+      <c r="DU26" s="4">
+        <v>49.185463795964957</v>
+      </c>
+      <c r="DV26" s="4">
+        <v>47.296299321365666</v>
+      </c>
+      <c r="DW26" s="4">
+        <v>52.014462862461393</v>
+      </c>
+      <c r="DX26" s="4">
+        <v>42.642780660018218</v>
+      </c>
+      <c r="DY26" s="4">
+        <v>45.290529679994627</v>
+      </c>
+      <c r="DZ26" s="4">
+        <v>47.600929211517936</v>
+      </c>
+      <c r="EA26" s="4">
+        <v>47.744352880039202</v>
+      </c>
+      <c r="EB26" s="4">
+        <v>50.078929314753346</v>
+      </c>
+      <c r="EC26" s="4">
+        <v>49.096580543054273</v>
+      </c>
+      <c r="ED26" s="4">
+        <v>43.874605279219779</v>
+      </c>
+      <c r="EE26" s="4">
+        <v>47.891192836982256</v>
+      </c>
+      <c r="EF26" s="4">
+        <v>51.898608831202232</v>
+      </c>
+      <c r="EG26" s="4">
+        <v>46.618168581449069</v>
+      </c>
+      <c r="EH26" s="4">
+        <v>51.216895829190264</v>
+      </c>
+      <c r="EI26" s="4">
+        <v>47.15793621159667</v>
+      </c>
+      <c r="EJ26" s="4">
+        <v>46.514195271469582</v>
+      </c>
+      <c r="EK26" s="4">
+        <v>47.952737413011157</v>
+      </c>
       <c r="ALM26" s="1"/>
     </row>
     <row r="27" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A27" s="1"/>
+      <c r="A27" s="2">
+        <v>45164</v>
+      </c>
+      <c r="B27" s="4">
+        <v>58.849871811371074</v>
+      </c>
+      <c r="C27" s="4">
+        <v>58.866973904749891</v>
+      </c>
+      <c r="D27" s="4">
+        <v>57.868375299838725</v>
+      </c>
+      <c r="E27" s="4">
+        <v>61.321152680155294</v>
+      </c>
+      <c r="F27" s="4">
+        <v>58.354472600342824</v>
+      </c>
+      <c r="G27" s="4">
+        <v>56.624352559103258</v>
+      </c>
+      <c r="H27" s="4">
+        <v>59.062967968497048</v>
+      </c>
+      <c r="I27" s="4">
+        <v>53.397530229458908</v>
+      </c>
+      <c r="J27" s="4">
+        <v>59.093697499220994</v>
+      </c>
+      <c r="K27" s="4">
+        <v>59.013306883414593</v>
+      </c>
+      <c r="L27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M27" s="4">
+        <v>57.692169698459637</v>
+      </c>
+      <c r="N27" s="4">
+        <v>57.581417577655188</v>
+      </c>
+      <c r="O27" s="4">
+        <v>60.88695298779345</v>
+      </c>
+      <c r="P27" s="4">
+        <v>59.119316191775411</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>56.640519182645562</v>
+      </c>
+      <c r="R27" s="4">
+        <v>58.918982822359133</v>
+      </c>
+      <c r="S27" s="4">
+        <v>54.806895262936514</v>
+      </c>
+      <c r="T27" s="4">
+        <v>58.748124290496094</v>
+      </c>
+      <c r="U27" s="4">
+        <v>56.361308626142424</v>
+      </c>
+      <c r="V27" s="4">
+        <v>59.041744274168472</v>
+      </c>
+      <c r="W27" s="4">
+        <v>56.18120087257153</v>
+      </c>
+      <c r="X27" s="4">
+        <v>56.732074141127114</v>
+      </c>
+      <c r="Y27" s="4">
+        <v>55.345717792931922</v>
+      </c>
+      <c r="Z27" s="4">
+        <v>56.453053473617388</v>
+      </c>
+      <c r="AA27" s="4">
+        <v>56.154882347272327</v>
+      </c>
+      <c r="AB27" s="4">
+        <v>54.70145553570859</v>
+      </c>
+      <c r="AC27" s="4">
+        <v>55.590445477243698</v>
+      </c>
+      <c r="AD27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AE27" s="4">
+        <v>51.932172169673727</v>
+      </c>
+      <c r="AF27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG27" s="4">
+        <v>52.565665496298976</v>
+      </c>
+      <c r="AH27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK27" s="4">
+        <v>52.37195898750501</v>
+      </c>
+      <c r="AL27" s="4">
+        <v>51.641282055846645</v>
+      </c>
+      <c r="AM27" s="4">
+        <v>53.858208950200137</v>
+      </c>
+      <c r="AN27" s="4">
+        <v>53.338610084966248</v>
+      </c>
+      <c r="AO27" s="4">
+        <v>52.307527904693309</v>
+      </c>
+      <c r="AP27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ27" s="4">
+        <v>53.170603106667649</v>
+      </c>
+      <c r="AR27" s="4">
+        <v>52.438690985147879</v>
+      </c>
+      <c r="AS27" s="4">
+        <v>54.559228926823707</v>
+      </c>
+      <c r="AT27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU27" s="4">
+        <v>52.835805521560523</v>
+      </c>
+      <c r="AV27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW27" s="4">
+        <v>53.808590495258294</v>
+      </c>
+      <c r="AX27" s="4">
+        <v>53.32906081164753</v>
+      </c>
+      <c r="AY27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ27" s="4">
+        <v>55.075634511680683</v>
+      </c>
+      <c r="BA27" s="4">
+        <v>59.106874990463254</v>
+      </c>
+      <c r="BB27" s="4">
+        <v>55.136786664338146</v>
+      </c>
+      <c r="BC27" s="4">
+        <v>53.892047320525656</v>
+      </c>
+      <c r="BD27" s="4">
+        <v>57.430572750398618</v>
+      </c>
+      <c r="BE27" s="4">
+        <v>50.998427909361972</v>
+      </c>
+      <c r="BF27" s="4">
+        <v>51.879403768193107</v>
+      </c>
+      <c r="BG27" s="4">
+        <v>51.817861957059662</v>
+      </c>
+      <c r="BH27" s="4">
+        <v>53.342955363165473</v>
+      </c>
+      <c r="BI27" s="4">
+        <v>50.640362046427548</v>
+      </c>
+      <c r="BJ27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK27" s="4">
+        <v>53.655756242119161</v>
+      </c>
+      <c r="BL27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BM27" s="4">
+        <v>55.480900577547736</v>
+      </c>
+      <c r="BN27" s="4">
+        <v>56.764094333641864</v>
+      </c>
+      <c r="BO27" s="4">
+        <v>57.256157729877302</v>
+      </c>
+      <c r="BP27" s="4">
+        <v>60.773033702987796</v>
+      </c>
+      <c r="BQ27" s="4">
+        <v>57.018041786554754</v>
+      </c>
+      <c r="BR27" s="4">
+        <v>57.436519697084321</v>
+      </c>
+      <c r="BS27" s="4">
+        <v>55.627026486392545</v>
+      </c>
+      <c r="BT27" s="4">
+        <v>54.016232166950665</v>
+      </c>
+      <c r="BU27" s="4">
+        <v>72.599998474121094</v>
+      </c>
+      <c r="BV27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BW27" s="4">
+        <v>53.283605227073679</v>
+      </c>
+      <c r="BX27" s="4">
+        <v>52.606550694481363</v>
+      </c>
+      <c r="BY27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BZ27" s="4">
+        <v>54.14430050034597</v>
+      </c>
+      <c r="CA27" s="4">
+        <v>55.061832068833986</v>
+      </c>
+      <c r="CB27" s="4">
+        <v>51.726301745833638</v>
+      </c>
+      <c r="CC27" s="4">
+        <v>52.102312371892261</v>
+      </c>
+      <c r="CD27" s="4">
+        <v>53.034049482757339</v>
+      </c>
+      <c r="CE27" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF27" s="4">
+        <v>54.249361711867316</v>
+      </c>
+      <c r="CG27" s="4">
+        <v>50.199795697628844</v>
+      </c>
+      <c r="CH27" s="4">
+        <v>54.275251228821098</v>
+      </c>
+      <c r="CI27" s="4">
+        <v>55.110208834122105</v>
+      </c>
+      <c r="CJ27" s="4">
+        <v>54.738924978473662</v>
+      </c>
+      <c r="CK27" s="4">
+        <v>55.762108178341421</v>
+      </c>
+      <c r="CL27" s="4">
+        <v>55.059711618944007</v>
+      </c>
+      <c r="CM27" s="4">
+        <v>54.336482585134682</v>
+      </c>
+      <c r="CN27" s="4">
+        <v>56.396852223488047</v>
+      </c>
+      <c r="CO27" s="4">
+        <v>58.006972450466328</v>
+      </c>
+      <c r="CP27" s="4">
+        <v>58.812332122317471</v>
+      </c>
+      <c r="CQ27" s="4">
+        <v>56.098093204579108</v>
+      </c>
+      <c r="CR27" s="4">
+        <v>55.054363792791534</v>
+      </c>
+      <c r="CS27" s="4">
+        <v>55.845332429147618</v>
+      </c>
+      <c r="CT27" s="4">
+        <v>57.048624338123616</v>
+      </c>
+      <c r="CU27" s="4">
+        <v>56.247057733639053</v>
+      </c>
+      <c r="CV27" s="4">
+        <v>44.7560661367949</v>
+      </c>
+      <c r="CW27" s="4">
+        <v>47.142770403355613</v>
+      </c>
+      <c r="CX27" s="4">
+        <v>43.2604350964681</v>
+      </c>
+      <c r="CY27" s="4">
+        <v>43.873187934381214</v>
+      </c>
+      <c r="CZ27" s="4">
+        <v>43.803053369756668</v>
+      </c>
+      <c r="DA27" s="4">
+        <v>44.870441444089451</v>
+      </c>
+      <c r="DB27" s="4">
+        <v>44.558881009239073</v>
+      </c>
+      <c r="DC27" s="4">
+        <v>43.398030498781267</v>
+      </c>
+      <c r="DD27" s="4">
+        <v>43.443681142611254</v>
+      </c>
+      <c r="DE27" s="4">
+        <v>39.853688425053662</v>
+      </c>
+      <c r="DF27" s="4">
+        <v>43.769678590766873</v>
+      </c>
+      <c r="DG27" s="4">
+        <v>45.101984632652226</v>
+      </c>
+      <c r="DH27" s="4">
+        <v>50.955555580357903</v>
+      </c>
+      <c r="DI27" s="4">
+        <v>45.301252097833277</v>
+      </c>
+      <c r="DJ27" s="4">
+        <v>45.802589430127824</v>
+      </c>
+      <c r="DK27" s="4">
+        <v>45.309280571148548</v>
+      </c>
+      <c r="DL27" s="4">
+        <v>45.238944427656847</v>
+      </c>
+      <c r="DM27" s="4">
+        <v>42.2882663080062</v>
+      </c>
+      <c r="DN27" s="4">
+        <v>45.565878771069364</v>
+      </c>
+      <c r="DO27" s="4">
+        <v>44.813301123327328</v>
+      </c>
+      <c r="DP27" s="4">
+        <v>44.60186123081472</v>
+      </c>
+      <c r="DQ27" s="4">
+        <v>43.280738596430794</v>
+      </c>
+      <c r="DR27" s="4">
+        <v>45.251117114089105</v>
+      </c>
+      <c r="DS27" s="4">
+        <v>44.414459016140661</v>
+      </c>
+      <c r="DT27" s="4">
+        <v>43.57746267745744</v>
+      </c>
+      <c r="DU27" s="4">
+        <v>45.01953860640301</v>
+      </c>
+      <c r="DV27" s="4">
+        <v>44.885319596119722</v>
+      </c>
+      <c r="DW27" s="4">
+        <v>47.18397706158683</v>
+      </c>
+      <c r="DX27" s="4">
+        <v>40.847102148138433</v>
+      </c>
+      <c r="DY27" s="4">
+        <v>42.036382616272043</v>
+      </c>
+      <c r="DZ27" s="4">
+        <v>44.008992531019679</v>
+      </c>
+      <c r="EA27" s="4">
+        <v>43.185981349410298</v>
+      </c>
+      <c r="EB27" s="4">
+        <v>45.462947039133489</v>
+      </c>
+      <c r="EC27" s="4">
+        <v>43.565961920052793</v>
+      </c>
+      <c r="ED27" s="4">
+        <v>43.135071762384833</v>
+      </c>
+      <c r="EE27" s="4">
+        <v>43.42690808394493</v>
+      </c>
+      <c r="EF27" s="4">
+        <v>45.608923665911924</v>
+      </c>
+      <c r="EG27" s="4">
+        <v>41.84999997859741</v>
+      </c>
+      <c r="EH27" s="4">
+        <v>47.74723563345286</v>
+      </c>
+      <c r="EI27" s="4">
+        <v>43.105094168291004</v>
+      </c>
+      <c r="EJ27" s="4">
+        <v>44.066347777325177</v>
+      </c>
+      <c r="EK27" s="4">
+        <v>41.842168683407046</v>
+      </c>
       <c r="ALM27" s="1"/>
     </row>
     <row r="28" spans="1:1001" x14ac:dyDescent="0.25">
-      <c r="A28" s="1"/>
+      <c r="A28" s="2">
+        <v>45165</v>
+      </c>
+      <c r="B28" s="4">
+        <v>52.370377449405495</v>
+      </c>
+      <c r="C28" s="4">
+        <v>52.655911428397417</v>
+      </c>
+      <c r="D28" s="4">
+        <v>52.193873573708508</v>
+      </c>
+      <c r="E28" s="4">
+        <v>55.223794204653899</v>
+      </c>
+      <c r="F28" s="4">
+        <v>52.270481251864467</v>
+      </c>
+      <c r="G28" s="4">
+        <v>51.308923848778122</v>
+      </c>
+      <c r="H28" s="4">
+        <v>53.739560752079406</v>
+      </c>
+      <c r="I28" s="4">
+        <v>49.290632154227936</v>
+      </c>
+      <c r="J28" s="4">
+        <v>54.479207522246028</v>
+      </c>
+      <c r="K28" s="4">
+        <v>53.509716909884467</v>
+      </c>
+      <c r="L28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="M28" s="4">
+        <v>52.264930008663576</v>
+      </c>
+      <c r="N28" s="4">
+        <v>52.196685293044901</v>
+      </c>
+      <c r="O28" s="4">
+        <v>54.944438578741412</v>
+      </c>
+      <c r="P28" s="4">
+        <v>53.439531510876073</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>51.411472752839771</v>
+      </c>
+      <c r="R28" s="4">
+        <v>53.04306287784847</v>
+      </c>
+      <c r="S28" s="4">
+        <v>49.696620279088407</v>
+      </c>
+      <c r="T28" s="4">
+        <v>52.658170665594781</v>
+      </c>
+      <c r="U28" s="4">
+        <v>50.376388833177614</v>
+      </c>
+      <c r="V28" s="4">
+        <v>51.867531276425311</v>
+      </c>
+      <c r="W28" s="4">
+        <v>51.027233132070315</v>
+      </c>
+      <c r="X28" s="4">
+        <v>51.477113857403971</v>
+      </c>
+      <c r="Y28" s="4">
+        <v>49.52207186579956</v>
+      </c>
+      <c r="Z28" s="4">
+        <v>51.368762397221033</v>
+      </c>
+      <c r="AA28" s="4">
+        <v>51.25764451184012</v>
+      </c>
+      <c r="AB28" s="4">
+        <v>49.362307554504937</v>
+      </c>
+      <c r="AC28" s="4">
+        <v>49.888368372825838</v>
+      </c>
+      <c r="AD28" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="AE28" s="4">
+        <v>45.241607159984355</v>
+      </c>
+      <c r="AF28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AG28" s="4">
+        <v>45.949944450176709</v>
+      </c>
+      <c r="AH28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AI28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AJ28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AK28" s="4">
+        <v>45.854759176746164</v>
+      </c>
+      <c r="AL28" s="4">
+        <v>45.352187815205035</v>
+      </c>
+      <c r="AM28" s="4">
+        <v>47.078075588084168</v>
+      </c>
+      <c r="AN28" s="4">
+        <v>46.220666371156113</v>
+      </c>
+      <c r="AO28" s="4">
+        <v>46.027671466204872</v>
+      </c>
+      <c r="AP28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AQ28" s="4">
+        <v>46.61751726961684</v>
+      </c>
+      <c r="AR28" s="4">
+        <v>44.422175730621468</v>
+      </c>
+      <c r="AS28" s="4">
+        <v>46.137300744700255</v>
+      </c>
+      <c r="AT28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AU28" s="4">
+        <v>45.66939167794083</v>
+      </c>
+      <c r="AV28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AW28" s="4">
+        <v>45.745893738235253</v>
+      </c>
+      <c r="AX28" s="4">
+        <v>45.696196200969339</v>
+      </c>
+      <c r="AY28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="AZ28" s="4">
+        <v>46.332870751386707</v>
+      </c>
+      <c r="BA28" s="4">
+        <v>48.597800142059185</v>
+      </c>
+      <c r="BB28" s="4">
+        <v>46.432926716843269</v>
+      </c>
+      <c r="BC28" s="4">
+        <v>45.245883635972127</v>
+      </c>
+      <c r="BD28" s="4">
+        <v>49.953103298842969</v>
+      </c>
+      <c r="BE28" s="4">
+        <v>44.328228177660172</v>
+      </c>
+      <c r="BF28" s="4">
+        <v>44.781526667471148</v>
+      </c>
+      <c r="BG28" s="4">
+        <v>45.548264927668527</v>
+      </c>
+      <c r="BH28" s="4">
+        <v>45.658097139736903</v>
+      </c>
+      <c r="BI28" s="4">
+        <v>44.823712560016737</v>
+      </c>
+      <c r="BJ28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BK28" s="4">
+        <v>46.237688447961858</v>
+      </c>
+      <c r="BL28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="4">
+        <v>49.901617754521595</v>
+      </c>
+      <c r="BN28" s="4">
+        <v>51.578332135198053</v>
+      </c>
+      <c r="BO28" s="4">
+        <v>51.280354694417412</v>
+      </c>
+      <c r="BP28" s="4">
+        <v>53.545436411149637</v>
+      </c>
+      <c r="BQ28" s="4">
+        <v>51.340129384055381</v>
+      </c>
+      <c r="BR28" s="4">
+        <v>51.4353501031025</v>
+      </c>
+      <c r="BS28" s="4">
+        <v>50.160862667172808</v>
+      </c>
+      <c r="BT28" s="4">
+        <v>46.462391955583513</v>
+      </c>
+      <c r="BU28" s="4">
+        <v>72.599998474121094</v>
+      </c>
+      <c r="BV28" s="4">
+        <v>0</v>
+      </c>
+      <c r="BW28" s="4">
+        <v>45.204637096774192</v>
+      </c>
+      <c r="BX28" s="4">
+        <v>45.030374144523371</v>
+      </c>
+      <c r="BY28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="BZ28" s="4">
+        <v>45.840807595491157</v>
+      </c>
+      <c r="CA28" s="4">
+        <v>46.587576690627024</v>
+      </c>
+      <c r="CB28" s="4">
+        <v>44.803878636223473</v>
+      </c>
+      <c r="CC28" s="4">
+        <v>46.164594358684482</v>
+      </c>
+      <c r="CD28" s="4">
+        <v>45.793811301882165</v>
+      </c>
+      <c r="CE28" s="4" t="str">
+        <v>[-11057] Not Enough Values For Calculation</v>
+      </c>
+      <c r="CF28" s="4">
+        <v>45.826901187961681</v>
+      </c>
+      <c r="CG28" s="4">
+        <v>43.320780136537074</v>
+      </c>
+      <c r="CH28" s="4">
+        <v>48.84842630875648</v>
+      </c>
+      <c r="CI28" s="4">
+        <v>49.79436470033373</v>
+      </c>
+      <c r="CJ28" s="4">
+        <v>49.269505868895578</v>
+      </c>
+      <c r="CK28" s="4">
+        <v>49.547050779884167</v>
+      </c>
+      <c r="CL28" s="4">
+        <v>49.692940397377868</v>
+      </c>
+      <c r="CM28" s="4">
+        <v>49.144885043257077</v>
+      </c>
+      <c r="CN28" s="4">
+        <v>50.521496726467319</v>
+      </c>
+      <c r="CO28" s="4">
+        <v>51.52305618224463</v>
+      </c>
+      <c r="CP28" s="4">
+        <v>52.651921910431675</v>
+      </c>
+      <c r="CQ28" s="4">
+        <v>50.640393270388977</v>
+      </c>
+      <c r="CR28" s="4">
+        <v>49.887630621354973</v>
+      </c>
+      <c r="CS28" s="4">
+        <v>50.284070361822522</v>
+      </c>
+      <c r="CT28" s="4">
+        <v>51.586089046577641</v>
+      </c>
+      <c r="CU28" s="4">
+        <v>50.969481731086333</v>
+      </c>
+      <c r="CV28" s="4">
+        <v>42.031436124911458</v>
+      </c>
+      <c r="CW28" s="4">
+        <v>41.458132343811748</v>
+      </c>
+      <c r="CX28" s="4">
+        <v>40.655158004806239</v>
+      </c>
+      <c r="CY28" s="4">
+        <v>40.673681748768537</v>
+      </c>
+      <c r="CZ28" s="4">
+        <v>38.565151749235213</v>
+      </c>
+      <c r="DA28" s="4">
+        <v>42.747282964599144</v>
+      </c>
+      <c r="DB28" s="4">
+        <v>40.892730637945689</v>
+      </c>
+      <c r="DC28" s="4">
+        <v>42.013610144662472</v>
+      </c>
+      <c r="DD28" s="4">
+        <v>41.113782941421107</v>
+      </c>
+      <c r="DE28" s="4">
+        <v>39.654408887849208</v>
+      </c>
+      <c r="DF28" s="4">
+        <v>40.864135808878011</v>
+      </c>
+      <c r="DG28" s="4">
+        <v>41.472806267505192</v>
+      </c>
+      <c r="DH28" s="4">
+        <v>49.06140358286693</v>
+      </c>
+      <c r="DI28" s="4">
+        <v>42.085305260641732</v>
+      </c>
+      <c r="DJ28" s="4">
+        <v>41.891304356791295</v>
+      </c>
+      <c r="DK28" s="4">
+        <v>42.244059817046278</v>
+      </c>
+      <c r="DL28" s="4">
+        <v>42.525607627797349</v>
+      </c>
+      <c r="DM28" s="4">
+        <v>40.696062082083117</v>
+      </c>
+      <c r="DN28" s="4">
+        <v>43.013339928487547</v>
+      </c>
+      <c r="DO28" s="4">
+        <v>42.894029822278377</v>
+      </c>
+      <c r="DP28" s="4">
+        <v>41.464990978823103</v>
+      </c>
+      <c r="DQ28" s="4">
+        <v>42.628022003173825</v>
+      </c>
+      <c r="DR28" s="4">
+        <v>42.817881075079796</v>
+      </c>
+      <c r="DS28" s="4">
+        <v>43.323974907811881</v>
+      </c>
+      <c r="DT28" s="4">
+        <v>40.553065749713809</v>
+      </c>
+      <c r="DU28" s="4">
+        <v>41.351166471203584</v>
+      </c>
+      <c r="DV28" s="4">
+        <v>41.471301109962212</v>
+      </c>
+      <c r="DW28" s="4">
+        <v>43.244821180616107</v>
+      </c>
+      <c r="DX28" s="4">
+        <v>39.737684927162498</v>
+      </c>
+      <c r="DY28" s="4">
+        <v>40.589188634140299</v>
+      </c>
+      <c r="DZ28" s="4">
+        <v>42.274104092989354</v>
+      </c>
+      <c r="EA28" s="4">
+        <v>40.107492252313371</v>
+      </c>
+      <c r="EB28" s="4">
+        <v>44.121759596926601</v>
+      </c>
+      <c r="EC28" s="4">
+        <v>41.912659309470094</v>
+      </c>
+      <c r="ED28" s="4">
+        <v>39.73732204366874</v>
+      </c>
+      <c r="EE28" s="4">
+        <v>40.904713200741128</v>
+      </c>
+      <c r="EF28" s="4">
+        <v>43.676768541592885</v>
+      </c>
+      <c r="EG28" s="4">
+        <v>39.889234940393003</v>
+      </c>
+      <c r="EH28" s="4">
+        <v>46.011066443733789</v>
+      </c>
+      <c r="EI28" s="4">
+        <v>41.865906235534126</v>
+      </c>
+      <c r="EJ28" s="4">
+        <v>40.91785712469192</v>
+      </c>
+      <c r="EK28" s="4">
+        <v>39.635812410228041</v>
+      </c>
       <c r="ALM28" s="1"/>
     </row>
     <row r="29" spans="1:1001" x14ac:dyDescent="0.25">
